--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3588532.809656475</v>
+        <v>3682397.256812782</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10694822.96350032</v>
+        <v>10363434.53730222</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>693006.6177228143</v>
+        <v>608890.6911856087</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7370982.44088531</v>
+        <v>7431574.290532959</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>203.9108783692366</v>
       </c>
       <c r="H11" t="n">
-        <v>178.7521764478456</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,10 +1432,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1582,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>312.7385393449467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2775894524737</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>284.6877393021491</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>311.9350677537279</v>
+        <v>22.99239313496662</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>340.9264233349196</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>224.6124620687866</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.19245946964203</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.15156051026801</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>180.9998696403681</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>257.7569561516011</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>279.2456663988792</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>299.7357983599352</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>316.2426363375197</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.8366778634035</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>97.251518780094</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
-        <v>78.62017069967852</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>76.43866032803534</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>75.42574570439741</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>96.03050594049439</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>74.75971259578704</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>26.35711809130428</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.93685035151351</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S16" t="n">
-        <v>119.7737230129081</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>149.5536469576354</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>216.216535887079</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>182.1423410052942</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>216.5276960180572</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>155.7143530705033</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.5893510335609</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>312.7385393449467</v>
+        <v>315.0134885431128</v>
       </c>
       <c r="C17" t="n">
-        <v>295.2775894524737</v>
+        <v>297.5525386506397</v>
       </c>
       <c r="D17" t="n">
-        <v>237.9623119030719</v>
+        <v>286.9626885003152</v>
       </c>
       <c r="E17" t="n">
-        <v>311.9350677537279</v>
+        <v>314.210016951894</v>
       </c>
       <c r="F17" t="n">
-        <v>336.8807434231776</v>
+        <v>339.1556926213436</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>343.2013725330856</v>
       </c>
       <c r="H17" t="n">
-        <v>224.6124620687866</v>
+        <v>226.8874112669527</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.19245946964203</v>
+        <v>41.46740866780802</v>
       </c>
       <c r="T17" t="n">
-        <v>133.9226678210863</v>
+        <v>136.1976170192524</v>
       </c>
       <c r="U17" t="n">
-        <v>180.9998696403681</v>
+        <v>183.2748188385342</v>
       </c>
       <c r="V17" t="n">
-        <v>257.7569561516011</v>
+        <v>260.0319053497671</v>
       </c>
       <c r="W17" t="n">
-        <v>279.2456663988792</v>
+        <v>281.5206155970452</v>
       </c>
       <c r="X17" t="n">
-        <v>299.7357983599352</v>
+        <v>225.2248969475112</v>
       </c>
       <c r="Y17" t="n">
-        <v>316.2426363375197</v>
+        <v>318.5175855356858</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.8366778634035</v>
+        <v>112.1116270615695</v>
       </c>
       <c r="C19" t="n">
-        <v>97.251518780094</v>
+        <v>99.52646797826002</v>
       </c>
       <c r="D19" t="n">
-        <v>78.62017069967852</v>
+        <v>80.89511989784454</v>
       </c>
       <c r="E19" t="n">
-        <v>76.43866032803534</v>
+        <v>78.71360952620135</v>
       </c>
       <c r="F19" t="n">
-        <v>75.42574570439741</v>
+        <v>77.70069490256343</v>
       </c>
       <c r="G19" t="n">
-        <v>96.03050594049439</v>
+        <v>98.30545513866041</v>
       </c>
       <c r="H19" t="n">
-        <v>74.75971259578695</v>
+        <v>77.03466179395296</v>
       </c>
       <c r="I19" t="n">
-        <v>26.35711809130428</v>
+        <v>28.63206728947029</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.93685035151351</v>
+        <v>21.21179954967953</v>
       </c>
       <c r="S19" t="n">
-        <v>119.7737230129081</v>
+        <v>122.0486722110741</v>
       </c>
       <c r="T19" t="n">
-        <v>149.5536469576354</v>
+        <v>151.8285961558014</v>
       </c>
       <c r="U19" t="n">
-        <v>216.216535887079</v>
+        <v>218.491485085245</v>
       </c>
       <c r="V19" t="n">
-        <v>182.1423410052942</v>
+        <v>184.4172902034602</v>
       </c>
       <c r="W19" t="n">
-        <v>216.5276960180573</v>
+        <v>218.8026452162232</v>
       </c>
       <c r="X19" t="n">
-        <v>155.7143530705033</v>
+        <v>157.9893022686693</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.5893510335609</v>
+        <v>150.864300231727</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>312.7385393449467</v>
+        <v>315.0134885431128</v>
       </c>
       <c r="C20" t="n">
-        <v>295.2775894524737</v>
+        <v>297.5525386506397</v>
       </c>
       <c r="D20" t="n">
-        <v>284.6877393021491</v>
+        <v>286.9626885003152</v>
       </c>
       <c r="E20" t="n">
-        <v>311.9350677537279</v>
+        <v>314.210016951894</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>339.1556926213436</v>
       </c>
       <c r="G20" t="n">
-        <v>340.9264233349196</v>
+        <v>343.2013725330856</v>
       </c>
       <c r="H20" t="n">
-        <v>224.6124620687866</v>
+        <v>226.8874112669527</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.19245946964202</v>
+        <v>41.46740866780802</v>
       </c>
       <c r="T20" t="n">
-        <v>133.9226678210863</v>
+        <v>136.1976170192524</v>
       </c>
       <c r="U20" t="n">
-        <v>130.2287623295491</v>
+        <v>183.2748188385342</v>
       </c>
       <c r="V20" t="n">
-        <v>257.7569561516011</v>
+        <v>183.2460547391772</v>
       </c>
       <c r="W20" t="n">
-        <v>279.2456663988792</v>
+        <v>281.5206155970452</v>
       </c>
       <c r="X20" t="n">
-        <v>299.7357983599352</v>
+        <v>302.0107475581012</v>
       </c>
       <c r="Y20" t="n">
-        <v>316.2426363375197</v>
+        <v>318.5175855356858</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.8366778634039</v>
+        <v>112.1116270615695</v>
       </c>
       <c r="C22" t="n">
-        <v>97.251518780094</v>
+        <v>99.52646797826002</v>
       </c>
       <c r="D22" t="n">
-        <v>78.62017069967852</v>
+        <v>80.89511989784454</v>
       </c>
       <c r="E22" t="n">
-        <v>76.43866032803534</v>
+        <v>78.71360952620135</v>
       </c>
       <c r="F22" t="n">
-        <v>75.42574570439741</v>
+        <v>77.70069490256343</v>
       </c>
       <c r="G22" t="n">
-        <v>96.03050594049439</v>
+        <v>98.30545513866041</v>
       </c>
       <c r="H22" t="n">
-        <v>74.75971259578695</v>
+        <v>77.03466179395296</v>
       </c>
       <c r="I22" t="n">
-        <v>26.35711809130427</v>
+        <v>28.63206728947029</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.9368503515135</v>
+        <v>21.21179954967953</v>
       </c>
       <c r="S22" t="n">
-        <v>119.7737230129081</v>
+        <v>122.0486722110741</v>
       </c>
       <c r="T22" t="n">
-        <v>149.5536469576354</v>
+        <v>151.8285961558014</v>
       </c>
       <c r="U22" t="n">
-        <v>216.216535887079</v>
+        <v>218.491485085245</v>
       </c>
       <c r="V22" t="n">
-        <v>182.1423410052942</v>
+        <v>184.4172902034602</v>
       </c>
       <c r="W22" t="n">
-        <v>216.5276960180572</v>
+        <v>218.8026452162232</v>
       </c>
       <c r="X22" t="n">
-        <v>155.7143530705033</v>
+        <v>157.9893022686693</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.5893510335609</v>
+        <v>150.864300231727</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>312.7385393449467</v>
+        <v>315.0134885431128</v>
       </c>
       <c r="C23" t="n">
-        <v>295.2775894524737</v>
+        <v>297.5525386506397</v>
       </c>
       <c r="D23" t="n">
-        <v>284.6877393021491</v>
+        <v>286.9626885003152</v>
       </c>
       <c r="E23" t="n">
-        <v>311.9350677537279</v>
+        <v>314.210016951894</v>
       </c>
       <c r="F23" t="n">
-        <v>336.8807434231776</v>
+        <v>339.1556926213436</v>
       </c>
       <c r="G23" t="n">
-        <v>340.9264233349196</v>
+        <v>343.2013725330856</v>
       </c>
       <c r="H23" t="n">
-        <v>224.6124620687866</v>
+        <v>226.8874112669527</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.192459469642</v>
+        <v>41.46740866780802</v>
       </c>
       <c r="T23" t="n">
-        <v>133.9226678210863</v>
+        <v>136.1976170192521</v>
       </c>
       <c r="U23" t="n">
-        <v>180.9998696403682</v>
+        <v>183.274818838535</v>
       </c>
       <c r="V23" t="n">
-        <v>257.7569561516011</v>
+        <v>260.0319053497671</v>
       </c>
       <c r="W23" t="n">
-        <v>279.2456663988792</v>
+        <v>281.5206155970452</v>
       </c>
       <c r="X23" t="n">
-        <v>299.7357983599352</v>
+        <v>302.0107475581012</v>
       </c>
       <c r="Y23" t="n">
-        <v>316.2426363375197</v>
+        <v>318.5175855356858</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109.8366778634035</v>
+        <v>112.1116270615695</v>
       </c>
       <c r="C25" t="n">
-        <v>97.251518780094</v>
+        <v>99.52646797826002</v>
       </c>
       <c r="D25" t="n">
-        <v>78.62017069967852</v>
+        <v>80.89511989784454</v>
       </c>
       <c r="E25" t="n">
-        <v>76.43866032803534</v>
+        <v>78.71360952620135</v>
       </c>
       <c r="F25" t="n">
-        <v>75.42574570439741</v>
+        <v>77.70069490256343</v>
       </c>
       <c r="G25" t="n">
-        <v>96.03050594049439</v>
+        <v>98.30545513866041</v>
       </c>
       <c r="H25" t="n">
-        <v>74.75971259578695</v>
+        <v>77.03466179395296</v>
       </c>
       <c r="I25" t="n">
-        <v>26.35711809130402</v>
+        <v>28.63206728947029</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.93685035151351</v>
+        <v>21.21179954967953</v>
       </c>
       <c r="S25" t="n">
-        <v>119.7737230129081</v>
+        <v>122.0486722110741</v>
       </c>
       <c r="T25" t="n">
-        <v>149.5536469576354</v>
+        <v>151.8285961558014</v>
       </c>
       <c r="U25" t="n">
-        <v>216.216535887079</v>
+        <v>218.491485085245</v>
       </c>
       <c r="V25" t="n">
-        <v>182.1423410052942</v>
+        <v>184.4172902034602</v>
       </c>
       <c r="W25" t="n">
-        <v>216.5276960180572</v>
+        <v>218.8026452162232</v>
       </c>
       <c r="X25" t="n">
-        <v>155.7143530705033</v>
+        <v>157.9893022686693</v>
       </c>
       <c r="Y25" t="n">
-        <v>148.5893510335609</v>
+        <v>150.864300231727</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2713,25 +2715,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124481</v>
+        <v>49.37728379124572</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210273</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2950,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572841</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.2977551524151</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.900909123119</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.946589034861</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695837</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403088</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515425</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633449</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797673</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.4459114043388</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572834</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124567</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.9570160514549</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052356</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179986</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.181775271962</v>
+        <v>309.5287849280706</v>
       </c>
       <c r="C35" t="n">
-        <v>276.720825379489</v>
+        <v>292.0678350355976</v>
       </c>
       <c r="D35" t="n">
-        <v>266.1309752291644</v>
+        <v>281.477984885273</v>
       </c>
       <c r="E35" t="n">
-        <v>293.3783036807432</v>
+        <v>308.7253133368519</v>
       </c>
       <c r="F35" t="n">
-        <v>318.3239793501929</v>
+        <v>333.6709890063015</v>
       </c>
       <c r="G35" t="n">
-        <v>322.3696592619349</v>
+        <v>337.7166689180435</v>
       </c>
       <c r="H35" t="n">
-        <v>206.0556979958019</v>
+        <v>221.4027076519105</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.63569539665731</v>
+        <v>35.98270505276571</v>
       </c>
       <c r="T35" t="n">
-        <v>115.3659037481016</v>
+        <v>130.7129134042102</v>
       </c>
       <c r="U35" t="n">
-        <v>162.4431055673834</v>
+        <v>177.7901152234917</v>
       </c>
       <c r="V35" t="n">
-        <v>239.2001920786164</v>
+        <v>254.547201734725</v>
       </c>
       <c r="W35" t="n">
-        <v>260.6889023258944</v>
+        <v>276.0359119820031</v>
       </c>
       <c r="X35" t="n">
-        <v>281.1790342869505</v>
+        <v>296.5260439430591</v>
       </c>
       <c r="Y35" t="n">
-        <v>169.828718552325</v>
+        <v>313.0328819206437</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.27991379041876</v>
+        <v>106.6269234465274</v>
       </c>
       <c r="C37" t="n">
-        <v>78.6947547071093</v>
+        <v>94.04176436321792</v>
       </c>
       <c r="D37" t="n">
-        <v>60.06340662669382</v>
+        <v>75.41041628280244</v>
       </c>
       <c r="E37" t="n">
-        <v>57.88189625505063</v>
+        <v>73.22890591115926</v>
       </c>
       <c r="F37" t="n">
-        <v>56.86898163141271</v>
+        <v>72.21599128752133</v>
       </c>
       <c r="G37" t="n">
-        <v>77.47374186750969</v>
+        <v>144.1768221936362</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>71.54995817891087</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>23.14736367442818</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3800862785288075</v>
+        <v>15.72709593463742</v>
       </c>
       <c r="S37" t="n">
-        <v>101.2169589399234</v>
+        <v>116.563968596032</v>
       </c>
       <c r="T37" t="n">
-        <v>130.9968828846507</v>
+        <v>146.3438925407593</v>
       </c>
       <c r="U37" t="n">
-        <v>197.6597718140943</v>
+        <v>213.0067814702029</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>178.9325865884181</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2229579382723</v>
+        <v>213.3179416011811</v>
       </c>
       <c r="X37" t="n">
-        <v>137.1575889975186</v>
+        <v>152.5045986536272</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.0325869605763</v>
+        <v>145.3795966166849</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>294.181775271962</v>
+        <v>309.5287849280706</v>
       </c>
       <c r="C38" t="n">
-        <v>276.720825379489</v>
+        <v>292.0678350355976</v>
       </c>
       <c r="D38" t="n">
-        <v>266.1309752291644</v>
+        <v>281.477984885273</v>
       </c>
       <c r="E38" t="n">
-        <v>293.3783036807432</v>
+        <v>308.7253133368519</v>
       </c>
       <c r="F38" t="n">
-        <v>318.3239793501929</v>
+        <v>333.6709890063015</v>
       </c>
       <c r="G38" t="n">
-        <v>322.3696592619349</v>
+        <v>337.7166689180435</v>
       </c>
       <c r="H38" t="n">
-        <v>206.0556979958019</v>
+        <v>221.4027076519106</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.63569539665731</v>
+        <v>35.98270505276595</v>
       </c>
       <c r="T38" t="n">
-        <v>115.3659037481016</v>
+        <v>130.7129134042102</v>
       </c>
       <c r="U38" t="n">
-        <v>162.4431055673834</v>
+        <v>177.7901152234913</v>
       </c>
       <c r="V38" t="n">
-        <v>111.3430383664065</v>
+        <v>254.547201734725</v>
       </c>
       <c r="W38" t="n">
-        <v>260.6889023258944</v>
+        <v>276.0359119820031</v>
       </c>
       <c r="X38" t="n">
-        <v>281.1790342869505</v>
+        <v>296.5260439430591</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.6858722645351</v>
+        <v>313.0328819206437</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247681</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.27991379041876</v>
+        <v>106.6269234465274</v>
       </c>
       <c r="C40" t="n">
-        <v>78.6947547071093</v>
+        <v>145.3978350332354</v>
       </c>
       <c r="D40" t="n">
-        <v>60.06340662669382</v>
+        <v>75.41041628280244</v>
       </c>
       <c r="E40" t="n">
-        <v>57.88189625505063</v>
+        <v>73.22890591115926</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>72.21599128752133</v>
       </c>
       <c r="G40" t="n">
-        <v>77.47374186750969</v>
+        <v>92.82075152361831</v>
       </c>
       <c r="H40" t="n">
-        <v>56.20294852280225</v>
+        <v>71.54995817891087</v>
       </c>
       <c r="I40" t="n">
-        <v>39.05238001151886</v>
+        <v>23.1473636744282</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3800862785288075</v>
+        <v>15.72709593463743</v>
       </c>
       <c r="S40" t="n">
-        <v>101.2169589399234</v>
+        <v>116.563968596032</v>
       </c>
       <c r="T40" t="n">
-        <v>130.9968828846507</v>
+        <v>146.3438925407593</v>
       </c>
       <c r="U40" t="n">
-        <v>197.6597718140943</v>
+        <v>213.0067814702029</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>178.9325865884181</v>
       </c>
       <c r="W40" t="n">
-        <v>197.9709319450725</v>
+        <v>213.3179416011811</v>
       </c>
       <c r="X40" t="n">
-        <v>137.1575889975186</v>
+        <v>152.5045986536272</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>145.3795966166849</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>318.1367461906134</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>187.1737212457217</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>290.0859461478158</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
-        <v>317.3332745993946</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>342.2789502688443</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>346.3246301805863</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>230.0106689144533</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
-        <v>139.320874666753</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>186.3980764860348</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>263.1551629972677</v>
+        <v>22.4956144274064</v>
       </c>
       <c r="W41" t="n">
-        <v>284.6438732445458</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
-        <v>321.6408431831863</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.2348847090701</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>102.6497256257606</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>84.01837754534515</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>81.83686717370196</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>80.82395255006404</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>101.428712786161</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>80.15791944145357</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>31.7553249369709</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.33505719718013</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
-        <v>125.1719298585747</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>154.951853803302</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>221.6147427327456</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>187.5405478509608</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>221.9259028637238</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>161.1125599161699</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.9875578792276</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>323.6959619980816</v>
+        <v>283.3850917015906</v>
       </c>
       <c r="D44" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>247.7004158371095</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
-        <v>344.6610088831276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>98.92939386132849</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.35522289712139</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T46" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V46" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1627.383644777219</v>
+        <v>1606.686541786254</v>
       </c>
       <c r="C11" t="n">
-        <v>1627.383644777219</v>
+        <v>1285.173657793916</v>
       </c>
       <c r="D11" t="n">
-        <v>1316.567579118542</v>
+        <v>974.3575921352387</v>
       </c>
       <c r="E11" t="n">
-        <v>978.2289594683707</v>
+        <v>636.0189724850678</v>
       </c>
       <c r="F11" t="n">
-        <v>614.6926876268365</v>
+        <v>272.4827006435336</v>
       </c>
       <c r="G11" t="n">
-        <v>247.0698704199063</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
@@ -5045,46 +5047,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921005</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="X11" t="n">
-        <v>2309.223550921005</v>
+        <v>2288.526447930041</v>
       </c>
       <c r="Y11" t="n">
-        <v>1966.533851893267</v>
+        <v>1945.836748902303</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,31 +5220,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1538.673007252443</v>
+        <v>1703.358762105092</v>
       </c>
       <c r="C14" t="n">
-        <v>1240.412815886308</v>
+        <v>1381.845878112754</v>
       </c>
       <c r="D14" t="n">
-        <v>952.8494428538341</v>
+        <v>1071.029812454077</v>
       </c>
       <c r="E14" t="n">
-        <v>637.7635158298665</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>637.7635158298665</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>293.3933912491397</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5279,16 +5281,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3286.017478710542</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3202.026003447645</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U14" t="n">
-        <v>3019.197852295758</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V14" t="n">
-        <v>2758.837290526464</v>
+        <v>2677.383608767878</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.770960830627</v>
+        <v>2372.064586445837</v>
       </c>
       <c r="X14" t="n">
-        <v>2174.007528143823</v>
+        <v>2046.048461132831</v>
       </c>
       <c r="Y14" t="n">
-        <v>1854.570521742288</v>
+        <v>1703.358762105092</v>
       </c>
     </row>
     <row r="15">
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>596.6974014218713</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>498.463544068241</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>419.0492302301819</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>341.8384622220653</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>265.6508402984316</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6503292474272</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>93.13546803956149</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>1908.166416420297</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>1787.1828578214</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.118567965203</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1417.718026665123</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
-        <v>1233.735864033513</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1015.021019570829</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>857.7337942470879</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>707.6435406778344</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1487.389060473838</v>
+        <v>1899.80899531458</v>
       </c>
       <c r="C17" t="n">
-        <v>1189.128869107703</v>
+        <v>1599.250875465449</v>
       </c>
       <c r="D17" t="n">
-        <v>948.7628974884382</v>
+        <v>1309.389573949979</v>
       </c>
       <c r="E17" t="n">
-        <v>633.6769704644705</v>
+        <v>992.0057184430152</v>
       </c>
       <c r="F17" t="n">
-        <v>293.3933912491396</v>
+        <v>649.4242107446883</v>
       </c>
       <c r="G17" t="n">
-        <v>293.3933912491396</v>
+        <v>302.7561576809654</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>262.4560853400386</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>917.1794174753379</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1368.213630723747</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1901.745535395671</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2448.524352454453</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2951.49682333379</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3371.544290738173</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3619.830652493855</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3678.847719050657</v>
       </c>
       <c r="S17" t="n">
-        <v>3286.017478710541</v>
+        <v>3636.961447669033</v>
       </c>
       <c r="T17" t="n">
-        <v>3150.74205666904</v>
+        <v>3499.388097144536</v>
       </c>
       <c r="U17" t="n">
-        <v>2967.913905517153</v>
+        <v>3314.262017509653</v>
       </c>
       <c r="V17" t="n">
-        <v>2707.553343747859</v>
+        <v>3051.603527257363</v>
       </c>
       <c r="W17" t="n">
-        <v>2425.487014052022</v>
+        <v>2767.239269078529</v>
       </c>
       <c r="X17" t="n">
-        <v>2122.723581365218</v>
+        <v>2539.739373171952</v>
       </c>
       <c r="Y17" t="n">
-        <v>1803.286574963683</v>
+        <v>2218.004438287421</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>948.6086924299383</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>774.1556631488113</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>625.22125348756</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>465.9837984821046</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>319.4492405089896</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>183.0861403416077</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>92.58424597947521</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>167.2542238716304</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>405.5184228519775</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>772.2165831646428</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1219.492908386959</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1693.015951941413</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2103.977231359469</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2414.476822835571</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2572.118380482171</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2571.974027074686</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2442.536140568166</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2249.893140246022</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2021.825293380437</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1786.673185148695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1532.435828420493</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1324.58432821496</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1116.824029450006</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>596.6974014218712</v>
+        <v>619.8477387516728</v>
       </c>
       <c r="C19" t="n">
-        <v>498.4635440682408</v>
+        <v>519.3159529150465</v>
       </c>
       <c r="D19" t="n">
-        <v>419.0492302301817</v>
+        <v>437.6037105939914</v>
       </c>
       <c r="E19" t="n">
-        <v>341.8384622220652</v>
+        <v>358.0950141028789</v>
       </c>
       <c r="F19" t="n">
-        <v>265.6508402984315</v>
+        <v>279.6094636962492</v>
       </c>
       <c r="G19" t="n">
-        <v>168.6503292474271</v>
+        <v>180.3110241622488</v>
       </c>
       <c r="H19" t="n">
-        <v>93.13546803956146</v>
+        <v>102.4982344713872</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>118.6995868279487</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>322.686769776825</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>639.2465682253212</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>1020.170469552806</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1361.578846258671</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1660.908445179084</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1893.515945612743</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1971.126241765258</v>
       </c>
       <c r="R19" t="n">
-        <v>1908.166416420297</v>
+        <v>1949.700181614066</v>
       </c>
       <c r="S19" t="n">
-        <v>1787.1828578214</v>
+        <v>1826.418694532174</v>
       </c>
       <c r="T19" t="n">
-        <v>1636.118567965203</v>
+        <v>1673.05647619298</v>
       </c>
       <c r="U19" t="n">
-        <v>1417.718026665123</v>
+        <v>1452.358006409904</v>
       </c>
       <c r="V19" t="n">
-        <v>1233.735864033513</v>
+        <v>1266.077915295298</v>
       </c>
       <c r="W19" t="n">
-        <v>1015.021019570828</v>
+        <v>1045.065142349618</v>
       </c>
       <c r="X19" t="n">
-        <v>857.7337942470878</v>
+        <v>885.4799885428813</v>
       </c>
       <c r="Y19" t="n">
-        <v>707.6435406778343</v>
+        <v>733.0918064906318</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1538.673007252443</v>
+        <v>1899.80899531458</v>
       </c>
       <c r="C20" t="n">
-        <v>1240.412815886308</v>
+        <v>1599.250875465449</v>
       </c>
       <c r="D20" t="n">
-        <v>952.8494428538341</v>
+        <v>1309.389573949979</v>
       </c>
       <c r="E20" t="n">
-        <v>637.7635158298665</v>
+        <v>992.0057184430152</v>
       </c>
       <c r="F20" t="n">
-        <v>637.7635158298665</v>
+        <v>649.4242107446883</v>
       </c>
       <c r="G20" t="n">
-        <v>293.3933912491396</v>
+        <v>302.7561576809654</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>262.4560853400386</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>596.2754590298849</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1047.309672278293</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1580.841576950218</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2127.620394009</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2630.592864888337</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3096.293194310614</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3554.771396819602</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3678.847719050657</v>
       </c>
       <c r="S20" t="n">
-        <v>3286.017478710541</v>
+        <v>3636.961447669033</v>
       </c>
       <c r="T20" t="n">
-        <v>3150.74205666904</v>
+        <v>3499.388097144536</v>
       </c>
       <c r="U20" t="n">
-        <v>3019.197852295758</v>
+        <v>3314.262017509653</v>
       </c>
       <c r="V20" t="n">
-        <v>2758.837290526464</v>
+        <v>3129.164992520585</v>
       </c>
       <c r="W20" t="n">
-        <v>2476.770960830627</v>
+        <v>2844.800734341751</v>
       </c>
       <c r="X20" t="n">
-        <v>2174.007528143823</v>
+        <v>2539.739373171952</v>
       </c>
       <c r="Y20" t="n">
-        <v>1854.570521742288</v>
+        <v>2218.004438287421</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1702.096133556937</v>
+        <v>948.6086924299383</v>
       </c>
       <c r="C21" t="n">
-        <v>1527.64310427581</v>
+        <v>774.1556631488113</v>
       </c>
       <c r="D21" t="n">
-        <v>1378.708694614559</v>
+        <v>625.22125348756</v>
       </c>
       <c r="E21" t="n">
-        <v>1219.471239609103</v>
+        <v>465.9837984821046</v>
       </c>
       <c r="F21" t="n">
-        <v>1072.936681635988</v>
+        <v>319.4492405089896</v>
       </c>
       <c r="G21" t="n">
-        <v>936.5735814686066</v>
+        <v>183.0861403416077</v>
       </c>
       <c r="H21" t="n">
-        <v>846.0716871064741</v>
+        <v>92.58424597947521</v>
       </c>
       <c r="I21" t="n">
-        <v>827.064395508012</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J21" t="n">
-        <v>920.7416649986294</v>
+        <v>167.2542238716304</v>
       </c>
       <c r="K21" t="n">
-        <v>1159.005863978977</v>
+        <v>405.5184228519784</v>
       </c>
       <c r="L21" t="n">
-        <v>1525.704024291642</v>
+        <v>772.2165831646437</v>
       </c>
       <c r="M21" t="n">
-        <v>1972.980349513958</v>
+        <v>1219.492908386959</v>
       </c>
       <c r="N21" t="n">
-        <v>2446.503393068412</v>
+        <v>1693.015951941414</v>
       </c>
       <c r="O21" t="n">
-        <v>2857.464672486467</v>
+        <v>2103.977231359469</v>
       </c>
       <c r="P21" t="n">
-        <v>3167.96426396257</v>
+        <v>2414.476822835571</v>
       </c>
       <c r="Q21" t="n">
-        <v>3325.60582160917</v>
+        <v>2572.118380482171</v>
       </c>
       <c r="R21" t="n">
-        <v>3325.461468201685</v>
+        <v>2571.974027074686</v>
       </c>
       <c r="S21" t="n">
-        <v>3196.023581695165</v>
+        <v>2442.536140568166</v>
       </c>
       <c r="T21" t="n">
-        <v>3003.380581373021</v>
+        <v>2249.893140246022</v>
       </c>
       <c r="U21" t="n">
-        <v>2775.312734507436</v>
+        <v>2021.825293380437</v>
       </c>
       <c r="V21" t="n">
-        <v>2540.160626275694</v>
+        <v>1786.673185148695</v>
       </c>
       <c r="W21" t="n">
-        <v>2285.923269547492</v>
+        <v>1532.435828420493</v>
       </c>
       <c r="X21" t="n">
-        <v>2078.071769341959</v>
+        <v>1324.58432821496</v>
       </c>
       <c r="Y21" t="n">
-        <v>1870.311470577005</v>
+        <v>1116.824029450006</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1995.008674942548</v>
+        <v>619.8477387516728</v>
       </c>
       <c r="C22" t="n">
-        <v>1896.774817588918</v>
+        <v>519.3159529150465</v>
       </c>
       <c r="D22" t="n">
-        <v>1817.360503750858</v>
+        <v>437.6037105939914</v>
       </c>
       <c r="E22" t="n">
-        <v>1740.149735742742</v>
+        <v>358.0950141028789</v>
       </c>
       <c r="F22" t="n">
-        <v>1663.962113819108</v>
+        <v>279.6094636962492</v>
       </c>
       <c r="G22" t="n">
-        <v>1566.961602768104</v>
+        <v>180.3110241622488</v>
       </c>
       <c r="H22" t="n">
-        <v>1491.446741560238</v>
+        <v>102.4982344713872</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.82338995286</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>118.6995868279487</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348672</v>
+        <v>322.686769776825</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797168</v>
+        <v>639.2465682253212</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396717</v>
+        <v>983.4036138248701</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1361.578846258671</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022995</v>
+        <v>1660.908445179084</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>1893.515945612743</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>1971.126241765258</v>
       </c>
       <c r="R22" t="n">
-        <v>3306.477689940974</v>
+        <v>1949.700181614066</v>
       </c>
       <c r="S22" t="n">
-        <v>3185.494131342077</v>
+        <v>1826.418694532174</v>
       </c>
       <c r="T22" t="n">
-        <v>3034.42984148588</v>
+        <v>1673.05647619298</v>
       </c>
       <c r="U22" t="n">
-        <v>2816.0293001858</v>
+        <v>1452.358006409904</v>
       </c>
       <c r="V22" t="n">
-        <v>2632.04713755419</v>
+        <v>1266.077915295298</v>
       </c>
       <c r="W22" t="n">
-        <v>2413.332293091506</v>
+        <v>1045.065142349618</v>
       </c>
       <c r="X22" t="n">
-        <v>2256.045067767765</v>
+        <v>885.4799885428813</v>
       </c>
       <c r="Y22" t="n">
-        <v>2105.954814198511</v>
+        <v>733.0918064906318</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1886.94776046765</v>
+        <v>1901.391882360768</v>
       </c>
       <c r="C23" t="n">
-        <v>1588.687569101515</v>
+        <v>1600.833762511637</v>
       </c>
       <c r="D23" t="n">
-        <v>1301.124196069041</v>
+        <v>1310.972460996167</v>
       </c>
       <c r="E23" t="n">
-        <v>986.0382690450735</v>
+        <v>993.5886054892035</v>
       </c>
       <c r="F23" t="n">
-        <v>645.7546898297428</v>
+        <v>651.0070977908765</v>
       </c>
       <c r="G23" t="n">
-        <v>301.3845652490158</v>
+        <v>304.3390447271536</v>
       </c>
       <c r="H23" t="n">
-        <v>74.50329043205964</v>
+        <v>75.15984142720137</v>
       </c>
       <c r="I23" t="n">
-        <v>74.50329043205964</v>
+        <v>75.15984142720137</v>
       </c>
       <c r="J23" t="n">
-        <v>263.3824213910851</v>
+        <v>264.0389723862268</v>
       </c>
       <c r="K23" t="n">
-        <v>597.2017950809316</v>
+        <v>597.8583460760731</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.23600832934</v>
+        <v>1462.377161729428</v>
       </c>
       <c r="M23" t="n">
-        <v>1970.214227426078</v>
+        <v>1995.909066401352</v>
       </c>
       <c r="N23" t="n">
-        <v>2520.114256053982</v>
+        <v>2542.687883460134</v>
       </c>
       <c r="O23" t="n">
-        <v>3023.086726933319</v>
+        <v>3045.660354339471</v>
       </c>
       <c r="P23" t="n">
-        <v>3417.861093290497</v>
+        <v>3450.688643047583</v>
       </c>
       <c r="Q23" t="n">
-        <v>3666.147455046179</v>
+        <v>3698.975004803266</v>
       </c>
       <c r="R23" t="n">
-        <v>3725.164521602982</v>
+        <v>3757.992071360068</v>
       </c>
       <c r="S23" t="n">
-        <v>3685.576178704354</v>
+        <v>3716.105799978444</v>
       </c>
       <c r="T23" t="n">
-        <v>3550.300756662853</v>
+        <v>3578.532449453947</v>
       </c>
       <c r="U23" t="n">
-        <v>3367.472605510965</v>
+        <v>3393.406369819063</v>
       </c>
       <c r="V23" t="n">
-        <v>3107.112043741671</v>
+        <v>3130.747879566773</v>
       </c>
       <c r="W23" t="n">
-        <v>2825.045714045834</v>
+        <v>2846.383621387939</v>
       </c>
       <c r="X23" t="n">
-        <v>2522.282281359031</v>
+        <v>2541.32226021814</v>
       </c>
       <c r="Y23" t="n">
-        <v>2202.845274957495</v>
+        <v>2219.587325333609</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2101.65483355075</v>
+        <v>950.1915794761265</v>
       </c>
       <c r="C24" t="n">
-        <v>1927.201804269623</v>
+        <v>775.7385501949996</v>
       </c>
       <c r="D24" t="n">
-        <v>1778.267394608371</v>
+        <v>626.8041405337483</v>
       </c>
       <c r="E24" t="n">
-        <v>1619.029939602916</v>
+        <v>467.5666855282929</v>
       </c>
       <c r="F24" t="n">
-        <v>1472.4953816298</v>
+        <v>321.0321275551779</v>
       </c>
       <c r="G24" t="n">
-        <v>1336.132281462419</v>
+        <v>184.6690273877959</v>
       </c>
       <c r="H24" t="n">
-        <v>1245.630387100286</v>
+        <v>94.16713302566345</v>
       </c>
       <c r="I24" t="n">
-        <v>1226.623095501825</v>
+        <v>75.15984142720137</v>
       </c>
       <c r="J24" t="n">
-        <v>1320.300364992441</v>
+        <v>168.8371109178186</v>
       </c>
       <c r="K24" t="n">
-        <v>1558.564563972788</v>
+        <v>407.1013098981657</v>
       </c>
       <c r="L24" t="n">
-        <v>1925.262724285453</v>
+        <v>773.799470210831</v>
       </c>
       <c r="M24" t="n">
-        <v>2372.53904950777</v>
+        <v>1221.075795433147</v>
       </c>
       <c r="N24" t="n">
-        <v>2846.062093062224</v>
+        <v>1694.598838987601</v>
       </c>
       <c r="O24" t="n">
-        <v>3257.023372480279</v>
+        <v>2105.560118405656</v>
       </c>
       <c r="P24" t="n">
-        <v>3567.522963956382</v>
+        <v>2416.059709881759</v>
       </c>
       <c r="Q24" t="n">
-        <v>3725.164521602982</v>
+        <v>2573.701267528359</v>
       </c>
       <c r="R24" t="n">
-        <v>3725.020168195497</v>
+        <v>2573.556914120874</v>
       </c>
       <c r="S24" t="n">
-        <v>3595.582281688977</v>
+        <v>2444.119027614354</v>
       </c>
       <c r="T24" t="n">
-        <v>3402.939281366833</v>
+        <v>2251.47602729221</v>
       </c>
       <c r="U24" t="n">
-        <v>3174.871434501249</v>
+        <v>2023.408180426625</v>
       </c>
       <c r="V24" t="n">
-        <v>2939.719326269506</v>
+        <v>1788.256072194883</v>
       </c>
       <c r="W24" t="n">
-        <v>2685.481969541304</v>
+        <v>1534.018715466681</v>
       </c>
       <c r="X24" t="n">
-        <v>2477.630469335772</v>
+        <v>1326.167215261148</v>
       </c>
       <c r="Y24" t="n">
-        <v>2269.870170570818</v>
+        <v>1118.406916496195</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2394.567374936361</v>
+        <v>621.430625797861</v>
       </c>
       <c r="C25" t="n">
-        <v>2296.333517582731</v>
+        <v>520.8988399612347</v>
       </c>
       <c r="D25" t="n">
-        <v>2216.919203744671</v>
+        <v>439.1865976401796</v>
       </c>
       <c r="E25" t="n">
-        <v>2139.708435736555</v>
+        <v>359.6779011490671</v>
       </c>
       <c r="F25" t="n">
-        <v>2063.520813812921</v>
+        <v>281.1923507424374</v>
       </c>
       <c r="G25" t="n">
-        <v>1966.520302761917</v>
+        <v>181.893911208437</v>
       </c>
       <c r="H25" t="n">
-        <v>1891.005441554051</v>
+        <v>104.0811215175754</v>
       </c>
       <c r="I25" t="n">
-        <v>1864.382089946673</v>
+        <v>75.15984142720137</v>
       </c>
       <c r="J25" t="n">
-        <v>1909.504722393609</v>
+        <v>120.2824738741369</v>
       </c>
       <c r="K25" t="n">
-        <v>2113.491905342485</v>
+        <v>324.2696568230132</v>
       </c>
       <c r="L25" t="n">
-        <v>2430.051703790981</v>
+        <v>640.8294552715093</v>
       </c>
       <c r="M25" t="n">
-        <v>2774.20874939053</v>
+        <v>984.9865008710583</v>
       </c>
       <c r="N25" t="n">
-        <v>3115.617126096395</v>
+        <v>1326.394877576923</v>
       </c>
       <c r="O25" t="n">
-        <v>3414.946725016808</v>
+        <v>1625.724476497336</v>
       </c>
       <c r="P25" t="n">
-        <v>3647.554225450468</v>
+        <v>1895.098832658932</v>
       </c>
       <c r="Q25" t="n">
-        <v>3725.164521602982</v>
+        <v>1972.709128811446</v>
       </c>
       <c r="R25" t="n">
-        <v>3706.036389934787</v>
+        <v>1951.283068660255</v>
       </c>
       <c r="S25" t="n">
-        <v>3585.05283133589</v>
+        <v>1828.001581578362</v>
       </c>
       <c r="T25" t="n">
-        <v>3433.988541479693</v>
+        <v>1674.639363239168</v>
       </c>
       <c r="U25" t="n">
-        <v>3215.588000179613</v>
+        <v>1453.940893456093</v>
       </c>
       <c r="V25" t="n">
-        <v>3031.605837548002</v>
+        <v>1267.660802341486</v>
       </c>
       <c r="W25" t="n">
-        <v>2812.890993085318</v>
+        <v>1046.648029395806</v>
       </c>
       <c r="X25" t="n">
-        <v>2655.603767761578</v>
+        <v>887.0628755890696</v>
       </c>
       <c r="Y25" t="n">
-        <v>2505.513514192325</v>
+        <v>734.6746935368201</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557145</v>
@@ -6233,43 +6235,43 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1609.943861686791</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2156.722678745573</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075028</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2433.836156782226</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>2259.383127501099</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>2110.448717839848</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>1951.211262834392</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>1804.676704861277</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>1668.313604693895</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>1577.811710331763</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>1558.804418733301</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>1652.481688223918</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>1890.745887204265</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>2257.44404751693</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
-        <v>2704.720372739246</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>3178.243416293701</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
-        <v>3589.204695711755</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>3899.704287187858</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>4057.345844834458</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>4057.201491426973</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>3927.763604920453</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>3735.120604598309</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>3507.052757732725</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>3271.900649500982</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>3017.663292772781</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>2809.811792567248</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>2602.051493802294</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2517.474464532007</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>2395.987914552174</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>2293.320908087911</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>2192.857447453591</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>2093.417132903754</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>1973.163929226547</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>1874.396375392478</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
-        <v>1824.520331158897</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>1916.148348858239</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>2166.640917059522</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>2529.706100760425</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>2920.368531612381</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>3308.282293570652</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>3654.117277743471</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>3933.230163429537</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>4057.345844834459</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>4014.96502054006</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>3870.72876931496</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>3696.411786832559</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>3454.758552906276</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>3247.523697648462</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>3005.556160559575</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>2825.016242609631</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>2651.673296414174</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.094314970129</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6558,7 +6560,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,64 +6688,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398489</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>282.5873354070231</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>937.3106675423226</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1388.344880790731</v>
+        <v>1453.404136464985</v>
       </c>
       <c r="M32" t="n">
-        <v>1921.876785462656</v>
+        <v>1986.93604113691</v>
       </c>
       <c r="N32" t="n">
-        <v>2468.655602521438</v>
+        <v>2533.714858195692</v>
       </c>
       <c r="O32" t="n">
-        <v>2971.628073400775</v>
+        <v>3036.687329075029</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2433.836156782225</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>2259.383127501098</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>2110.448717839847</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>1951.211262834391</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>1804.676704861276</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>1668.313604693894</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>1577.811710331762</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>1558.8044187333</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>1652.481688223917</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>1890.745887204264</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>2257.444047516929</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
-        <v>2704.720372739245</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>3178.2434162937</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
-        <v>3589.204695711755</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>3899.704287187858</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>4057.345844834458</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>4057.201491426973</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>3927.763604920453</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>3735.120604598309</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
-        <v>3507.052757732724</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>3271.900649500981</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>3017.66329277278</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>2809.811792567247</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
-        <v>2602.051493802293</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899672</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643397</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797317</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982196</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350175</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308446</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481266</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167332</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572253</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277854</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052754</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.38513864407</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1766.491349661806</v>
+        <v>1866.568367344627</v>
       </c>
       <c r="C35" t="n">
-        <v>1486.975364429999</v>
+        <v>1571.550352157155</v>
       </c>
       <c r="D35" t="n">
-        <v>1218.156197531853</v>
+        <v>1287.229155303344</v>
       </c>
       <c r="E35" t="n">
-        <v>921.8144766422133</v>
+        <v>975.3854044580389</v>
       </c>
       <c r="F35" t="n">
-        <v>600.2751035612105</v>
+        <v>638.3440014213708</v>
       </c>
       <c r="G35" t="n">
-        <v>274.6491851148116</v>
+        <v>297.2160530193066</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>262.4560853400386</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>596.275459029885</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1047.309672278294</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1580.841576950218</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2127.620394009001</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2630.592864888338</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3096.293194310614</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3554.771396819602</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3678.847719050657</v>
       </c>
       <c r="S35" t="n">
-        <v>3304.76168484487</v>
+        <v>3642.501552330692</v>
       </c>
       <c r="T35" t="n">
-        <v>3188.230468937697</v>
+        <v>3510.468306467853</v>
       </c>
       <c r="U35" t="n">
-        <v>3024.146523920138</v>
+        <v>3330.882331494629</v>
       </c>
       <c r="V35" t="n">
-        <v>2782.530168285172</v>
+        <v>3073.763945903997</v>
       </c>
       <c r="W35" t="n">
-        <v>2519.208044723662</v>
+        <v>2794.939792386822</v>
       </c>
       <c r="X35" t="n">
-        <v>2235.188818171187</v>
+        <v>2495.418535878682</v>
       </c>
       <c r="Y35" t="n">
-        <v>2063.644658017323</v>
+        <v>2179.22370565581</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>948.6086924299384</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>774.1556631488114</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>625.2212534875603</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>465.9837984821047</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>319.4492405089898</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>183.0861403416077</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>92.5842459794752</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>167.2542238716308</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>405.5184228519779</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>772.2165831646433</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1219.492908386959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1693.015951941414</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2103.977231359469</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2414.476822835572</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2572.118380482171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2571.974027074687</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2442.536140568167</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2249.893140246022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2021.825293380438</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1786.673185148695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1532.435828420493</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1324.58432821496</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1116.824029450006</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2042.692295419462</v>
+        <v>632.941824978666</v>
       </c>
       <c r="C37" t="n">
-        <v>1963.20264420016</v>
+        <v>537.9501438036983</v>
       </c>
       <c r="D37" t="n">
-        <v>1902.532536496429</v>
+        <v>461.7780061443019</v>
       </c>
       <c r="E37" t="n">
-        <v>1844.06597462264</v>
+        <v>387.8094143148481</v>
       </c>
       <c r="F37" t="n">
-        <v>1786.622558833335</v>
+        <v>314.8639685698771</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>169.2308148389314</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>96.95812980972849</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>118.6995868279487</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>322.6867697768251</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>639.2465682253212</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>983.4036138248703</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1324.811990530735</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1624.141589451148</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1856.749089884808</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1934.359386037323</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.221896075303</v>
+        <v>1918.47343054779</v>
       </c>
       <c r="S37" t="n">
-        <v>3222.982543610734</v>
+        <v>1800.732048127556</v>
       </c>
       <c r="T37" t="n">
-        <v>3090.662459888865</v>
+        <v>1652.909934450021</v>
       </c>
       <c r="U37" t="n">
-        <v>2891.006124723113</v>
+        <v>1437.751569328604</v>
       </c>
       <c r="V37" t="n">
-        <v>2636.321636517226</v>
+        <v>1257.011582875656</v>
       </c>
       <c r="W37" t="n">
-        <v>2404.783295165436</v>
+        <v>1041.538914591635</v>
       </c>
       <c r="X37" t="n">
-        <v>2266.240275976023</v>
+        <v>887.4938654465572</v>
       </c>
       <c r="Y37" t="n">
-        <v>2134.894228541098</v>
+        <v>740.6457880559664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1766.491349661806</v>
+        <v>1866.568367344628</v>
       </c>
       <c r="C38" t="n">
-        <v>1486.975364429999</v>
+        <v>1571.550352157155</v>
       </c>
       <c r="D38" t="n">
-        <v>1218.156197531853</v>
+        <v>1287.229155303344</v>
       </c>
       <c r="E38" t="n">
-        <v>921.8144766422133</v>
+        <v>975.3854044580391</v>
       </c>
       <c r="F38" t="n">
-        <v>600.2751035612105</v>
+        <v>638.3440014213709</v>
       </c>
       <c r="G38" t="n">
-        <v>274.6491851148116</v>
+        <v>297.2160530193067</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>429.8617343603916</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>877.3932628482901</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1328.427476096699</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1861.959380768623</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2408.738197827405</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2911.710668706742</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3306.48503506392</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3554.771396819602</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3678.847719050657</v>
       </c>
       <c r="S38" t="n">
-        <v>3304.76168484487</v>
+        <v>3642.501552330692</v>
       </c>
       <c r="T38" t="n">
-        <v>3188.230468937697</v>
+        <v>3510.468306467853</v>
       </c>
       <c r="U38" t="n">
-        <v>3024.146523920138</v>
+        <v>3330.882331494629</v>
       </c>
       <c r="V38" t="n">
-        <v>2911.678808398515</v>
+        <v>3073.763945903998</v>
       </c>
       <c r="W38" t="n">
-        <v>2648.356684837006</v>
+        <v>2794.939792386823</v>
       </c>
       <c r="X38" t="n">
-        <v>2364.33745828453</v>
+        <v>2495.418535878683</v>
       </c>
       <c r="Y38" t="n">
-        <v>2063.644658017323</v>
+        <v>2179.22370565581</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>948.6086924299377</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>774.1556631488107</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>625.2212534875595</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>465.983798482104</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>319.449240508989</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>183.0861403416071</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>92.58424597947457</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>167.2542238716304</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>405.5184228519775</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>772.2165831646428</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1219.492908386959</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1693.015951941413</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2103.977231359468</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2414.476822835571</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2572.11838048217</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2571.974027074686</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2442.536140568166</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2249.893140246021</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2021.825293380437</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1786.673185148694</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1532.435828420492</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1324.58432821496</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1116.824029450006</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>586.5021932136135</v>
+        <v>632.9418249786655</v>
       </c>
       <c r="C40" t="n">
-        <v>507.0125419943112</v>
+        <v>486.0753249450944</v>
       </c>
       <c r="D40" t="n">
-        <v>446.3424342905801</v>
+        <v>409.903187285698</v>
       </c>
       <c r="E40" t="n">
-        <v>387.8758724167915</v>
+        <v>335.9345954562442</v>
       </c>
       <c r="F40" t="n">
-        <v>240.9859249188812</v>
+        <v>262.9891497112731</v>
       </c>
       <c r="G40" t="n">
-        <v>162.7296200022047</v>
+        <v>169.2308148389314</v>
       </c>
       <c r="H40" t="n">
-        <v>105.9589649286671</v>
+        <v>96.9581298097285</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101315</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>118.6995868279487</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>322.686769776825</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>639.2465682253212</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>983.4036138248701</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1324.811990530735</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>1624.141589451148</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>1856.749089884808</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1934.359386037322</v>
       </c>
       <c r="R40" t="n">
-        <v>1926.910622554625</v>
+        <v>1918.473430547789</v>
       </c>
       <c r="S40" t="n">
-        <v>1824.671270090056</v>
+        <v>1800.732048127555</v>
       </c>
       <c r="T40" t="n">
-        <v>1692.351186368186</v>
+        <v>1652.909934450021</v>
       </c>
       <c r="U40" t="n">
-        <v>1492.694851202434</v>
+        <v>1437.751569328603</v>
       </c>
       <c r="V40" t="n">
-        <v>1238.010362996547</v>
+        <v>1257.011582875656</v>
       </c>
       <c r="W40" t="n">
-        <v>1038.039724668191</v>
+        <v>1041.538914591635</v>
       </c>
       <c r="X40" t="n">
-        <v>899.4967054787787</v>
+        <v>887.4938654465567</v>
       </c>
       <c r="Y40" t="n">
-        <v>678.7041263352486</v>
+        <v>740.6457880559659</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1797.024430934018</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C41" t="n">
-        <v>1607.960066039349</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D41" t="n">
-        <v>1314.943958819333</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E41" t="n">
-        <v>994.4052976078237</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F41" t="n">
-        <v>648.6689842049507</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G41" t="n">
-        <v>298.8461254366817</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,10 +7411,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7427,7 +7429,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3184.877665380127</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U41" t="n">
-        <v>2996.596780040698</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="V41" t="n">
-        <v>2730.783484083862</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W41" t="n">
-        <v>2443.264420200482</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X41" t="n">
-        <v>2443.264420200482</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y41" t="n">
-        <v>2118.374679611405</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7506,34 +7508,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1945.934067254671</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C43" t="n">
-        <v>1842.247475713498</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D43" t="n">
-        <v>1757.380427687897</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E43" t="n">
-        <v>1674.716925492239</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F43" t="n">
-        <v>1593.076569381063</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G43" t="n">
-        <v>1490.623324142516</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H43" t="n">
-        <v>1409.655728747109</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>1377.579642952189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1486.653399917263</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>1690.640582866139</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L43" t="n">
-        <v>2007.200381314635</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396718</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102583</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022996</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456656</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R43" t="n">
-        <v>3301.024955753433</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S43" t="n">
-        <v>3174.588662966994</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T43" t="n">
-        <v>3018.071638923255</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U43" t="n">
-        <v>2794.218363435633</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V43" t="n">
-        <v>2604.78346661648</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>2380.615887966254</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X43" t="n">
-        <v>2217.875928454971</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y43" t="n">
-        <v>2062.332940698176</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2051.189147350246</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.223529170366</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D44" t="n">
-        <v>1407.954729324146</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E44" t="n">
-        <v>1064.163375486434</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F44" t="n">
-        <v>695.1743694573572</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G44" t="n">
-        <v>322.098818062885</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W44" t="n">
-        <v>3075.403381369666</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X44" t="n">
-        <v>2743.934521869117</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y44" t="n">
-        <v>2395.792088653837</v>
+        <v>1983.207425607999</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7727,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>667.6378438997364</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C46" t="n">
-        <v>540.6985597323608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D46" t="n">
-        <v>432.5788190805563</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E46" t="n">
-        <v>326.6626242586944</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F46" t="n">
-        <v>221.7695755213154</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G46" t="n">
-        <v>221.7695755213154</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>121.8408948533068</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>397.9442527783887</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6652117020815</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M46" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.552954957888</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1864.043714353498</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P46" t="n">
-        <v>2137.812375262354</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2059.061287995482</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
-        <v>1879.29157132554</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1632.185603211715</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
-        <v>1419.498013766359</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.07774248993</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>986.0850903524437</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.2894099694448</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.1714383918936</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>190.3031782327903</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L8" t="n">
-        <v>198.8134134286828</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M8" t="n">
-        <v>189.2288989314403</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N8" t="n">
-        <v>187.6304078450024</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O8" t="n">
-        <v>190.6440344120867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P8" t="n">
-        <v>197.5597684822216</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.0184985483494</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0005307905077</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>117.6099567371116</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3506551919139</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M9" t="n">
-        <v>110.3885704446632</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N9" t="n">
-        <v>98.75604064930731</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>112.7867212099614</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P9" t="n">
-        <v>110.0496369646663</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.9886986308555</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.2683336820906</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M10" t="n">
-        <v>122.4605402496043</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N10" t="n">
-        <v>111.6118074607417</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6098407184718</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0240892919591</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>25.52838489616636</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9416,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>71.64238693444378</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,19 +9643,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>392.3700145705187</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.152738958708255</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10.35749732417639</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9881,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>21.74982042514853</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>209.1187564935612</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>334.4868774152291</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544165</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>12.68816924374607</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>78.40458911672994</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10601,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>71.64238693444264</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>114.8607624222749</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.06857246251522</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>160.0357106656243</v>
       </c>
       <c r="H11" t="n">
-        <v>68.88045132088223</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>311.9628403187026</v>
       </c>
       <c r="F14" t="n">
-        <v>336.8807434231776</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
-        <v>50.77110731081831</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>46.72542739907723</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>340.9264233349196</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>76.78585061059005</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>336.8807434231776</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>50.77110731081905</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>76.78585061058988</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>127.85715371221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25448,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>127.8571537122099</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>113.5020750524186</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.59066631530864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>258.281507424136</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>305.1340052056019</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>34.91266345082443</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.61083201524987</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>59.96362310737757</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>124.4488784861023</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>4.248691280066325</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693315.9199894222</v>
+        <v>701226.2994571973</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>603007.5593146025</v>
+        <v>583767.3048225915</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>603007.5593146024</v>
+        <v>633395.7240902894</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>603007.5593146025</v>
+        <v>633395.7240902894</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639530.9095553157</v>
+        <v>640630.2478261406</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650655.0916579646</v>
+        <v>650655.0916579647</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650655.0916579646</v>
+        <v>650655.0916579647</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>618517.302726803</v>
+        <v>637979.8393717417</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>618517.302726803</v>
+        <v>637979.8393717417</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>598495.7380329943</v>
+        <v>583767.3048225916</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>576938.9272851924</v>
+        <v>583767.3048225916</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>819276.3387170385</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="D2" t="n">
-        <v>819294.9782552271</v>
+        <v>819283.7029994978</v>
       </c>
       <c r="E2" t="n">
         <v>764531.0098898428</v>
       </c>
       <c r="F2" t="n">
-        <v>790184.6825458573</v>
+        <v>764531.0098898425</v>
       </c>
       <c r="G2" t="n">
-        <v>790184.6825458572</v>
+        <v>814929.6161556807</v>
       </c>
       <c r="H2" t="n">
-        <v>790184.6825458572</v>
+        <v>814929.616155681</v>
       </c>
       <c r="I2" t="n">
         <v>821041.7698642827</v>
       </c>
       <c r="J2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="L2" t="n">
         <v>821041.7698642821</v>
       </c>
       <c r="M2" t="n">
-        <v>810864.3404287915</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="N2" t="n">
-        <v>810864.3404287914</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="O2" t="n">
-        <v>784168.9208370463</v>
+        <v>764531.0098898428</v>
       </c>
       <c r="P2" t="n">
-        <v>755426.5065066444</v>
+        <v>764531.0098898427</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49884.87955687269</v>
+        <v>19708.98312032399</v>
       </c>
       <c r="E3" t="n">
-        <v>1114551.098322467</v>
+        <v>1142859.142942023</v>
       </c>
       <c r="F3" t="n">
-        <v>18416.13255995299</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>40800.74956648269</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26562.76226526364</v>
+        <v>5261.536327617708</v>
       </c>
       <c r="J3" t="n">
-        <v>40892.28926881515</v>
+        <v>40564.96577018715</v>
       </c>
       <c r="K3" t="n">
-        <v>18416.13255995299</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>16596.1732014201</v>
       </c>
       <c r="M3" t="n">
-        <v>194861.976923455</v>
+        <v>204591.6926510703</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>436273.8797192482</v>
       </c>
       <c r="D4" t="n">
-        <v>420271.2830126015</v>
+        <v>429836.4204240781</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359859</v>
+        <v>58215.55741359854</v>
       </c>
       <c r="F4" t="n">
-        <v>72741.85753385472</v>
+        <v>58215.55741359854</v>
       </c>
       <c r="G4" t="n">
-        <v>72741.85753385472</v>
+        <v>83177.52332994426</v>
       </c>
       <c r="H4" t="n">
-        <v>72741.85753385465</v>
+        <v>83177.52332994425</v>
       </c>
       <c r="I4" t="n">
-        <v>86169.61770251986</v>
+        <v>85837.2861671233</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409845</v>
+        <v>82806.76150409848</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409845</v>
+        <v>82806.76150409851</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409844</v>
       </c>
       <c r="M4" t="n">
-        <v>84545.12538744754</v>
+        <v>86654.67862842782</v>
       </c>
       <c r="N4" t="n">
-        <v>84545.12538744755</v>
+        <v>86654.67862842789</v>
       </c>
       <c r="O4" t="n">
-        <v>69335.45404512683</v>
+        <v>58215.55741359857</v>
       </c>
       <c r="P4" t="n">
-        <v>53005.67962103672</v>
+        <v>58215.55741359857</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34897.4185390942</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
+        <v>78255.49332178176</v>
+      </c>
+      <c r="F5" t="n">
         <v>78255.49332178175</v>
       </c>
-      <c r="F5" t="n">
-        <v>80190.77563201012</v>
-      </c>
       <c r="G5" t="n">
-        <v>80190.77563201009</v>
+        <v>85368.79976898008</v>
       </c>
       <c r="H5" t="n">
-        <v>80190.7756320101</v>
+        <v>85368.79976898008</v>
       </c>
       <c r="I5" t="n">
-        <v>86264.06787191605</v>
+        <v>86571.79392408313</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>81750.82423086186</v>
+        <v>85829.89331719307</v>
       </c>
       <c r="N5" t="n">
-        <v>81750.82423086186</v>
+        <v>85829.89331719305</v>
       </c>
       <c r="O5" t="n">
-        <v>79736.95378070178</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>77801.67147047342</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>349374.8589977904</v>
       </c>
       <c r="C6" t="n">
-        <v>349374.8589977901</v>
+        <v>349374.8589977904</v>
       </c>
       <c r="D6" t="n">
-        <v>314241.3971466587</v>
+        <v>335609.0077125237</v>
       </c>
       <c r="E6" t="n">
-        <v>-486491.1391680042</v>
+        <v>-514799.1837875604</v>
       </c>
       <c r="F6" t="n">
-        <v>618835.9168200395</v>
+        <v>628059.9591544624</v>
       </c>
       <c r="G6" t="n">
-        <v>637252.0493799923</v>
+        <v>605582.5434902736</v>
       </c>
       <c r="H6" t="n">
-        <v>637252.0493799924</v>
+        <v>646383.2930567566</v>
       </c>
       <c r="I6" t="n">
-        <v>622045.3220245831</v>
+        <v>643371.1534454586</v>
       </c>
       <c r="J6" t="n">
-        <v>607964.7774165634</v>
+        <v>608292.1009151915</v>
       </c>
       <c r="K6" t="n">
-        <v>630440.934125426</v>
+        <v>648857.0666853787</v>
       </c>
       <c r="L6" t="n">
-        <v>648857.0666853775</v>
+        <v>632260.8934839575</v>
       </c>
       <c r="M6" t="n">
-        <v>449706.4138870271</v>
+        <v>443965.5052675924</v>
       </c>
       <c r="N6" t="n">
-        <v>644568.390810482</v>
+        <v>648557.1979186623</v>
       </c>
       <c r="O6" t="n">
-        <v>635096.5130112178</v>
+        <v>628059.9591544626</v>
       </c>
       <c r="P6" t="n">
-        <v>624619.1554151343</v>
+        <v>628059.9591544624</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="G2" t="n">
+        <v>67.72035312036782</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67.72035312036782</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67.72035312036782</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859245</v>
+      </c>
+      <c r="M2" t="n">
+        <v>73.20505673540991</v>
+      </c>
+      <c r="N2" t="n">
+        <v>73.20505673540991</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="F2" t="n">
-        <v>69.99530231853383</v>
-      </c>
-      <c r="G2" t="n">
-        <v>69.99530231853383</v>
-      </c>
-      <c r="H2" t="n">
-        <v>69.99530231853383</v>
-      </c>
-      <c r="I2" t="n">
-        <v>69.99530231853383</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859262</v>
-      </c>
-      <c r="M2" t="n">
-        <v>88.55206639151854</v>
-      </c>
-      <c r="N2" t="n">
-        <v>88.55206639151854</v>
-      </c>
-      <c r="O2" t="n">
-        <v>64.59709547286721</v>
-      </c>
       <c r="P2" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>58.24855683918372</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>919.7119297626643</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>919.7119297626643</v>
       </c>
       <c r="I4" t="n">
-        <v>931.2911304007455</v>
+        <v>939.498017840017</v>
       </c>
       <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="K4" t="n">
-        <v>1014.336461208614</v>
-      </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>919.7119297626643</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>919.7119297626643</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>23.02016569994124</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.74521650177525</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.95497091865132</v>
+        <v>26.22992011681733</v>
       </c>
       <c r="K2" t="n">
-        <v>23.02016569994124</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.74521650177513</v>
       </c>
       <c r="M2" t="n">
-        <v>41.57692977292592</v>
+        <v>26.22992011681746</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>58.24855683918372</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.528143754114</v>
+        <v>1066.763317906509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>88.3104743603717</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.88967499845307</v>
+        <v>19.7860880773527</v>
       </c>
       <c r="J4" t="n">
-        <v>83.04533080786905</v>
+        <v>74.83844336859738</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>736.7769239563424</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>23.02016569994124</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.74521650177525</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.95497091865132</v>
+        <v>26.22992011681733</v>
       </c>
       <c r="P2" t="n">
-        <v>23.02016569994124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>88.3104743603717</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.0766592706242</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4482413792798</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.159747454519</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
-        <v>203.6840334496709</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>222.070792046288</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3269197036269</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2182278145377</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>111.0254128953655</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>85.08294255719251</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.37890424117629</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3559764037063</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6597246973196</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9331393606674</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8859409772733</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>161.2932858092638</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>152.2916843367006</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>85.93296656686405</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>10.06594172088666</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.36651116897764</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5704838013235</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1860655212228</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4967890723075</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3132999902444</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>69.99530231853375</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="C17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="D17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="E17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="G17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="H17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="T17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="U17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="V17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="W17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="X17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="Y17" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="C19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="D19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="E19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="F19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="G19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="H19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="I19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28752,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>37.13823810902613</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28767,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="S19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="T19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="U19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="V19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="W19" t="n">
-        <v>69.9953023185337</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="X19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="C20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="D20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="E20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="F20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="G20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="H20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="T20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="U20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="V20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="W20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="X20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="Y20" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.99530231853339</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="C22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="D22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="E22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="F22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="G22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="H22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="I22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28992,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>37.13823810902608</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="S22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="T22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="U22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="V22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="W22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="X22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="C23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="D23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="E23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="F23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="G23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="H23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="T23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="U23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="V23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="W23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="X23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="C25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="D25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="E25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="F25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="G25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="H25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="I25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29235,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>37.13823810902642</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="S25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="T25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="U25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="V25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="W25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="X25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.99530231853383</v>
+        <v>67.72035312036782</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859537</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859131</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="C35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="D35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="E35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="F35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="G35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="H35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="T35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="U35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="V35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="W35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="X35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="C37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="D37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="E37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="F37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="G37" t="n">
-        <v>88.55206639151854</v>
+        <v>21.84898606539198</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="S37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="T37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="U37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="W37" t="n">
-        <v>57.30004039831869</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="X37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="C38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="D38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="E38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="F38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="G38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="H38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="T38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="U38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="V38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="W38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="X38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="C40" t="n">
-        <v>88.55206639151854</v>
+        <v>21.84898606539244</v>
       </c>
       <c r="D40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="E40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="G40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="H40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="I40" t="n">
-        <v>57.30004039831926</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="S40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="T40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="U40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="W40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="X40" t="n">
-        <v>88.55206639151854</v>
+        <v>73.20505673540991</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>73.20505673540991</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>23.52790149750916</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>46.97513661859165</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.59709547286721</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292596</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2341650526198339</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H8" t="n">
-        <v>2.398142845142874</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I8" t="n">
-        <v>9.027648191126154</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>19.87446613479264</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K8" t="n">
-        <v>29.78667281219022</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L8" t="n">
-        <v>36.95300154130447</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M8" t="n">
-        <v>41.11733429583244</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N8" t="n">
-        <v>41.78265575158854</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O8" t="n">
-        <v>39.45417700960007</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P8" t="n">
-        <v>33.67322727304791</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.2871913261001</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>14.70937048663065</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S8" t="n">
-        <v>5.33603613657447</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T8" t="n">
-        <v>1.025057517843323</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01873320420958671</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1252893486729612</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H9" t="n">
-        <v>1.210031341130968</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I9" t="n">
-        <v>4.313690294222568</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>11.83709587615903</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K9" t="n">
-        <v>20.23148223724743</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L9" t="n">
-        <v>27.20372458796029</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M9" t="n">
-        <v>31.74546347735512</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>32.585671434026</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O9" t="n">
-        <v>29.80952323448301</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>23.92477044966397</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.99307545516607</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R9" t="n">
-        <v>7.77892991146684</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>2.327194700131537</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5050039975019794</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008242720307431662</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1050383811854133</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9338866981757658</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I10" t="n">
-        <v>3.158790590557702</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J10" t="n">
-        <v>7.426213549808717</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>12.20355010499619</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L10" t="n">
-        <v>15.61634259914772</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M10" t="n">
-        <v>16.46524369800073</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>16.07373700449148</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O10" t="n">
-        <v>14.84669773337096</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P10" t="n">
-        <v>12.70391475718852</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.795532082716742</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R10" t="n">
-        <v>4.722907575845944</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>1.830532515749429</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4488003559740383</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005729366246477094</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32090,7 +32092,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
         <v>447.6103584002926</v>
@@ -32327,7 +32329,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970257</v>
       </c>
       <c r="P18" t="n">
         <v>447.6103584002926</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353166</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33275,13 +33277,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34223,7 +34225,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165858</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35577,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35738,7 +35740,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923319</v>
@@ -35899,7 +35901,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>424.290371115538</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037194</v>
@@ -35975,7 +35977,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525813</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
@@ -36048,7 +36050,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>384.7716175025099</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882178</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>470.4043731538154</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609576</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36288,16 +36290,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>381.9951842765661</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>931.2911304007455</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>555.4545743716197</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>409.119483543548</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>272.0953092541368</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,22 +36603,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>560.6709362553751</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>761.4205919064725</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36844,13 +36846,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>842.5398783034481</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737881</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36923,13 +36925,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>203.4751702124586</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>533.9947035090619</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37090,7 +37092,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165864</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629149</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120751</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861324</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>470.4043731538145</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687133</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>452.0520489776753</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,7 +37873,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>110.1755120859334</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>371.1612808909929</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>349.3282668412314</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38105,7 +38107,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.15534638599216</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>389.2103091664097</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>276.5340009180363</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3682397.256812782</v>
+        <v>3677372.413445149</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10363434.53730222</v>
+        <v>10336320.93836254</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>608890.6911856087</v>
+        <v>559972.8496018044</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7431574.290532959</v>
+        <v>7447948.346583858</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>332.4608795339514</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>314.9999296414783</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>304.4100794911537</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>331.6574079427326</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>356.6030836121822</v>
       </c>
       <c r="G11" t="n">
-        <v>203.9108783692366</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>244.3348022577912</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>200.7222098293728</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>277.4792963406057</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>298.9680065878838</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>228.9020963615418</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>335.9649765265244</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>129.5590180524081</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>116.9738589690986</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>98.34251088868315</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>96.16100051703997</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>95.14808589340204</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>115.752846129499</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>94.48205278479158</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>46.07945828030889</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>38.65919054051813</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>139.4960632019127</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>169.27598714664</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>235.9388760760836</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>201.8646811942988</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>236.2500362070618</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>175.4366932595079</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>168.3116912225656</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>332.4608795339514</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>314.9999296414783</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>304.4100794911537</v>
       </c>
       <c r="E14" t="n">
-        <v>22.99239313496662</v>
+        <v>331.6574079427326</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>356.6030836121822</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>240.1869589895389</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.91479965864664</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>153.6450080100909</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>200.7222098293728</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>277.4792963406057</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>319.4581385489398</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>335.9649765265244</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>129.5590180524081</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>116.9738589690986</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996198</v>
+        <v>98.34251088868315</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>96.16100051703997</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>95.14808589340204</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>115.752846129499</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>94.48205278479158</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>46.07945828030889</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145478</v>
+        <v>38.65919054051813</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>139.4960632019127</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>169.27598714664</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>235.9388760760836</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>201.8646811942988</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>236.2500362070618</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>175.4366932595079</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>168.3116912225656</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.0134885431128</v>
+        <v>310.6222239801235</v>
       </c>
       <c r="C17" t="n">
-        <v>297.5525386506397</v>
+        <v>293.1612740876504</v>
       </c>
       <c r="D17" t="n">
-        <v>286.9626885003152</v>
+        <v>282.5714239373258</v>
       </c>
       <c r="E17" t="n">
-        <v>314.210016951894</v>
+        <v>309.8187523889047</v>
       </c>
       <c r="F17" t="n">
-        <v>339.1556926213436</v>
+        <v>334.7644280583543</v>
       </c>
       <c r="G17" t="n">
-        <v>343.2013725330856</v>
+        <v>338.8101079700963</v>
       </c>
       <c r="H17" t="n">
-        <v>226.8874112669527</v>
+        <v>222.4961467039633</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>41.46740866780802</v>
+        <v>37.07614410481872</v>
       </c>
       <c r="T17" t="n">
-        <v>136.1976170192524</v>
+        <v>131.806352456263</v>
       </c>
       <c r="U17" t="n">
-        <v>183.2748188385342</v>
+        <v>178.8835542755446</v>
       </c>
       <c r="V17" t="n">
-        <v>260.0319053497671</v>
+        <v>255.6406407867778</v>
       </c>
       <c r="W17" t="n">
-        <v>281.5206155970452</v>
+        <v>277.1293510340559</v>
       </c>
       <c r="X17" t="n">
-        <v>225.2248969475112</v>
+        <v>297.6194829951119</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.5175855356858</v>
+        <v>314.1263209726965</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.1116270615695</v>
+        <v>107.7203624985802</v>
       </c>
       <c r="C19" t="n">
-        <v>99.52646797826002</v>
+        <v>95.13520341527071</v>
       </c>
       <c r="D19" t="n">
-        <v>80.89511989784454</v>
+        <v>76.50385533485523</v>
       </c>
       <c r="E19" t="n">
-        <v>78.71360952620135</v>
+        <v>74.32234496321205</v>
       </c>
       <c r="F19" t="n">
-        <v>77.70069490256343</v>
+        <v>73.30943033957412</v>
       </c>
       <c r="G19" t="n">
-        <v>98.30545513866041</v>
+        <v>93.9141905756711</v>
       </c>
       <c r="H19" t="n">
-        <v>77.03466179395296</v>
+        <v>72.64339723096366</v>
       </c>
       <c r="I19" t="n">
-        <v>28.63206728947029</v>
+        <v>24.24080272648099</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.21179954967953</v>
+        <v>16.82053498669022</v>
       </c>
       <c r="S19" t="n">
-        <v>122.0486722110741</v>
+        <v>151.5184534852571</v>
       </c>
       <c r="T19" t="n">
-        <v>151.8285961558014</v>
+        <v>147.4373315928121</v>
       </c>
       <c r="U19" t="n">
-        <v>218.491485085245</v>
+        <v>214.1002205222557</v>
       </c>
       <c r="V19" t="n">
-        <v>184.4172902034602</v>
+        <v>180.0260256404709</v>
       </c>
       <c r="W19" t="n">
-        <v>218.8026452162232</v>
+        <v>214.4113806532339</v>
       </c>
       <c r="X19" t="n">
-        <v>157.9893022686693</v>
+        <v>153.59803770568</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.864300231727</v>
+        <v>146.4730356687377</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.0134885431128</v>
+        <v>310.6222239801235</v>
       </c>
       <c r="C20" t="n">
-        <v>297.5525386506397</v>
+        <v>293.1612740876504</v>
       </c>
       <c r="D20" t="n">
-        <v>286.9626885003152</v>
+        <v>282.5714239373258</v>
       </c>
       <c r="E20" t="n">
-        <v>314.210016951894</v>
+        <v>309.8187523889047</v>
       </c>
       <c r="F20" t="n">
-        <v>339.1556926213436</v>
+        <v>334.7644280583543</v>
       </c>
       <c r="G20" t="n">
-        <v>343.2013725330856</v>
+        <v>338.8101079700963</v>
       </c>
       <c r="H20" t="n">
-        <v>226.8874112669527</v>
+        <v>222.4961467039634</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.46740866780802</v>
+        <v>37.07614410481871</v>
       </c>
       <c r="T20" t="n">
-        <v>136.1976170192524</v>
+        <v>131.8063524562631</v>
       </c>
       <c r="U20" t="n">
-        <v>183.2748188385342</v>
+        <v>178.8835542755449</v>
       </c>
       <c r="V20" t="n">
-        <v>183.2460547391772</v>
+        <v>255.6406407867778</v>
       </c>
       <c r="W20" t="n">
-        <v>281.5206155970452</v>
+        <v>277.1293510340548</v>
       </c>
       <c r="X20" t="n">
-        <v>302.0107475581012</v>
+        <v>297.6194829951119</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.5175855356858</v>
+        <v>314.1263209726965</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.1116270615695</v>
+        <v>141.5814083357526</v>
       </c>
       <c r="C22" t="n">
-        <v>99.52646797826002</v>
+        <v>95.13520341527071</v>
       </c>
       <c r="D22" t="n">
-        <v>80.89511989784454</v>
+        <v>76.50385533485523</v>
       </c>
       <c r="E22" t="n">
-        <v>78.71360952620135</v>
+        <v>74.32234496321205</v>
       </c>
       <c r="F22" t="n">
-        <v>77.70069490256343</v>
+        <v>73.30943033957412</v>
       </c>
       <c r="G22" t="n">
-        <v>98.30545513866041</v>
+        <v>93.9141905756711</v>
       </c>
       <c r="H22" t="n">
-        <v>77.03466179395296</v>
+        <v>72.64339723096366</v>
       </c>
       <c r="I22" t="n">
-        <v>28.63206728947029</v>
+        <v>24.24080272648099</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.21179954967953</v>
+        <v>16.82053498669022</v>
       </c>
       <c r="S22" t="n">
-        <v>122.0486722110741</v>
+        <v>117.6574076480848</v>
       </c>
       <c r="T22" t="n">
-        <v>151.8285961558014</v>
+        <v>147.4373315928121</v>
       </c>
       <c r="U22" t="n">
-        <v>218.491485085245</v>
+        <v>214.1002205222557</v>
       </c>
       <c r="V22" t="n">
-        <v>184.4172902034602</v>
+        <v>180.0260256404709</v>
       </c>
       <c r="W22" t="n">
-        <v>218.8026452162232</v>
+        <v>214.4113806532339</v>
       </c>
       <c r="X22" t="n">
-        <v>157.9893022686693</v>
+        <v>153.59803770568</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.864300231727</v>
+        <v>146.4730356687377</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.0134885431128</v>
+        <v>310.6222239801235</v>
       </c>
       <c r="C23" t="n">
-        <v>297.5525386506397</v>
+        <v>293.1612740876504</v>
       </c>
       <c r="D23" t="n">
-        <v>286.9626885003152</v>
+        <v>282.5714239373258</v>
       </c>
       <c r="E23" t="n">
-        <v>314.210016951894</v>
+        <v>309.8187523889047</v>
       </c>
       <c r="F23" t="n">
-        <v>339.1556926213436</v>
+        <v>334.7644280583543</v>
       </c>
       <c r="G23" t="n">
-        <v>343.2013725330856</v>
+        <v>338.8101079700963</v>
       </c>
       <c r="H23" t="n">
-        <v>226.8874112669527</v>
+        <v>222.4961467039633</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>41.46740866780802</v>
+        <v>37.07614410481872</v>
       </c>
       <c r="T23" t="n">
-        <v>136.1976170192521</v>
+        <v>131.8063524562631</v>
       </c>
       <c r="U23" t="n">
-        <v>183.274818838535</v>
+        <v>178.883554275545</v>
       </c>
       <c r="V23" t="n">
-        <v>260.0319053497671</v>
+        <v>255.6406407867778</v>
       </c>
       <c r="W23" t="n">
-        <v>281.5206155970452</v>
+        <v>277.1293510340559</v>
       </c>
       <c r="X23" t="n">
-        <v>302.0107475581012</v>
+        <v>297.6194829951119</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.5175855356858</v>
+        <v>314.1263209726965</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.1116270615695</v>
+        <v>107.7203624985802</v>
       </c>
       <c r="C25" t="n">
-        <v>99.52646797826002</v>
+        <v>95.13520341527071</v>
       </c>
       <c r="D25" t="n">
-        <v>80.89511989784454</v>
+        <v>76.50385533485523</v>
       </c>
       <c r="E25" t="n">
-        <v>78.71360952620135</v>
+        <v>74.32234496321205</v>
       </c>
       <c r="F25" t="n">
-        <v>77.70069490256343</v>
+        <v>107.1704761767466</v>
       </c>
       <c r="G25" t="n">
-        <v>98.30545513866041</v>
+        <v>93.9141905756711</v>
       </c>
       <c r="H25" t="n">
-        <v>77.03466179395296</v>
+        <v>72.64339723096366</v>
       </c>
       <c r="I25" t="n">
-        <v>28.63206728947029</v>
+        <v>24.24080272648099</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.21179954967953</v>
+        <v>16.82053498669022</v>
       </c>
       <c r="S25" t="n">
-        <v>122.0486722110741</v>
+        <v>117.6574076480848</v>
       </c>
       <c r="T25" t="n">
-        <v>151.8285961558014</v>
+        <v>147.4373315928121</v>
       </c>
       <c r="U25" t="n">
-        <v>218.491485085245</v>
+        <v>214.1002205222557</v>
       </c>
       <c r="V25" t="n">
-        <v>184.4172902034602</v>
+        <v>180.0260256404709</v>
       </c>
       <c r="W25" t="n">
-        <v>218.8026452162232</v>
+        <v>214.4113806532339</v>
       </c>
       <c r="X25" t="n">
-        <v>157.9893022686693</v>
+        <v>153.59803770568</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.864300231727</v>
+        <v>146.4730356687377</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2715,25 +2715,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124572</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210278</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2952,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572841</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3006,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524151</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.900909123119</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.946589034861</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515425</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988206</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598766</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247658</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633449</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797673</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043388</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572834</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124567</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514549</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128495</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179986</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>309.5287849280706</v>
+        <v>310.6222239801234</v>
       </c>
       <c r="C35" t="n">
-        <v>292.0678350355976</v>
+        <v>293.1612740876503</v>
       </c>
       <c r="D35" t="n">
-        <v>281.477984885273</v>
+        <v>282.5714239373257</v>
       </c>
       <c r="E35" t="n">
-        <v>308.7253133368519</v>
+        <v>309.8187523889046</v>
       </c>
       <c r="F35" t="n">
-        <v>333.6709890063015</v>
+        <v>334.7644280583542</v>
       </c>
       <c r="G35" t="n">
-        <v>337.7166689180435</v>
+        <v>338.8101079700962</v>
       </c>
       <c r="H35" t="n">
-        <v>221.4027076519105</v>
+        <v>222.4961467039632</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.98270505276571</v>
+        <v>37.07614410481864</v>
       </c>
       <c r="T35" t="n">
-        <v>130.7129134042102</v>
+        <v>131.806352456263</v>
       </c>
       <c r="U35" t="n">
-        <v>177.7901152234917</v>
+        <v>178.883554275545</v>
       </c>
       <c r="V35" t="n">
-        <v>254.547201734725</v>
+        <v>255.6406407867777</v>
       </c>
       <c r="W35" t="n">
-        <v>276.0359119820031</v>
+        <v>277.1293510340558</v>
       </c>
       <c r="X35" t="n">
-        <v>296.5260439430591</v>
+        <v>297.6194829951118</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.0328819206437</v>
+        <v>314.1263209726964</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.6269234465274</v>
+        <v>107.7203624985801</v>
       </c>
       <c r="C37" t="n">
-        <v>94.04176436321792</v>
+        <v>128.9962492524446</v>
       </c>
       <c r="D37" t="n">
-        <v>75.41041628280244</v>
+        <v>76.50385533485515</v>
       </c>
       <c r="E37" t="n">
-        <v>73.22890591115926</v>
+        <v>74.32234496321196</v>
       </c>
       <c r="F37" t="n">
-        <v>72.21599128752133</v>
+        <v>73.30943033957404</v>
       </c>
       <c r="G37" t="n">
-        <v>144.1768221936362</v>
+        <v>93.91419057567101</v>
       </c>
       <c r="H37" t="n">
-        <v>71.54995817891087</v>
+        <v>72.64339723096357</v>
       </c>
       <c r="I37" t="n">
-        <v>23.14736367442818</v>
+        <v>24.2408027264809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.72709593463742</v>
+        <v>16.82053498669013</v>
       </c>
       <c r="S37" t="n">
-        <v>116.563968596032</v>
+        <v>117.6574076480847</v>
       </c>
       <c r="T37" t="n">
-        <v>146.3438925407593</v>
+        <v>147.437331592812</v>
       </c>
       <c r="U37" t="n">
-        <v>213.0067814702029</v>
+        <v>214.1002205222556</v>
       </c>
       <c r="V37" t="n">
-        <v>178.9325865884181</v>
+        <v>180.0260256404708</v>
       </c>
       <c r="W37" t="n">
-        <v>213.3179416011811</v>
+        <v>214.4113806532338</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5045986536272</v>
+        <v>153.5980377056799</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.3795966166849</v>
+        <v>146.4730356687376</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>309.5287849280706</v>
+        <v>310.6222239801234</v>
       </c>
       <c r="C38" t="n">
-        <v>292.0678350355976</v>
+        <v>293.1612740876503</v>
       </c>
       <c r="D38" t="n">
-        <v>281.477984885273</v>
+        <v>282.5714239373257</v>
       </c>
       <c r="E38" t="n">
-        <v>308.7253133368519</v>
+        <v>309.8187523889046</v>
       </c>
       <c r="F38" t="n">
-        <v>333.6709890063015</v>
+        <v>334.7644280583542</v>
       </c>
       <c r="G38" t="n">
-        <v>337.7166689180435</v>
+        <v>338.8101079700962</v>
       </c>
       <c r="H38" t="n">
-        <v>221.4027076519106</v>
+        <v>222.4961467039633</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.98270505276595</v>
+        <v>37.07614410481865</v>
       </c>
       <c r="T38" t="n">
-        <v>130.7129134042102</v>
+        <v>131.8063524562639</v>
       </c>
       <c r="U38" t="n">
-        <v>177.7901152234913</v>
+        <v>178.8835542755448</v>
       </c>
       <c r="V38" t="n">
-        <v>254.547201734725</v>
+        <v>255.6406407867777</v>
       </c>
       <c r="W38" t="n">
-        <v>276.0359119820031</v>
+        <v>277.1293510340558</v>
       </c>
       <c r="X38" t="n">
-        <v>296.5260439430591</v>
+        <v>297.6194829951118</v>
       </c>
       <c r="Y38" t="n">
-        <v>313.0328819206437</v>
+        <v>314.1263209726964</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247681</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.6269234465274</v>
+        <v>107.7203624985801</v>
       </c>
       <c r="C40" t="n">
-        <v>145.3978350332354</v>
+        <v>95.13520341527062</v>
       </c>
       <c r="D40" t="n">
-        <v>75.41041628280244</v>
+        <v>110.3649011720292</v>
       </c>
       <c r="E40" t="n">
-        <v>73.22890591115926</v>
+        <v>74.32234496321196</v>
       </c>
       <c r="F40" t="n">
-        <v>72.21599128752133</v>
+        <v>73.30943033957404</v>
       </c>
       <c r="G40" t="n">
-        <v>92.82075152361831</v>
+        <v>93.91419057567101</v>
       </c>
       <c r="H40" t="n">
-        <v>71.54995817891087</v>
+        <v>72.64339723096357</v>
       </c>
       <c r="I40" t="n">
-        <v>23.1473636744282</v>
+        <v>24.2408027264809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.72709593463743</v>
+        <v>16.82053498669013</v>
       </c>
       <c r="S40" t="n">
-        <v>116.563968596032</v>
+        <v>117.6574076480847</v>
       </c>
       <c r="T40" t="n">
-        <v>146.3438925407593</v>
+        <v>147.437331592812</v>
       </c>
       <c r="U40" t="n">
-        <v>213.0067814702029</v>
+        <v>214.1002205222556</v>
       </c>
       <c r="V40" t="n">
-        <v>178.9325865884181</v>
+        <v>180.0260256404708</v>
       </c>
       <c r="W40" t="n">
-        <v>213.3179416011811</v>
+        <v>214.4113806532338</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5045986536272</v>
+        <v>153.5980377056799</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.3795966166849</v>
+        <v>146.4730356687376</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>22.4956144274064</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>300.136753303936</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>283.3850917015906</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>179.438447948434</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870211</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1606.686541786254</v>
+        <v>1634.194240619394</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.173657793916</v>
+        <v>1316.012493506789</v>
       </c>
       <c r="D11" t="n">
-        <v>974.3575921352387</v>
+        <v>1008.527564727846</v>
       </c>
       <c r="E11" t="n">
-        <v>636.0189724850678</v>
+        <v>673.5200819574092</v>
       </c>
       <c r="F11" t="n">
-        <v>272.4827006435336</v>
+        <v>313.3149469956089</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>313.3149469956089</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638545</v>
+        <v>3122.856114710815</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243048</v>
+        <v>2842.573997195052</v>
       </c>
       <c r="W11" t="n">
-        <v>2614.542573243048</v>
+        <v>2540.586111752745</v>
       </c>
       <c r="X11" t="n">
-        <v>2288.526447930041</v>
+        <v>2309.371873003713</v>
       </c>
       <c r="Y11" t="n">
-        <v>1945.836748902303</v>
+        <v>1970.013310855708</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>736.1482916471564</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>617.9928785470568</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>518.6570089625284</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>421.5246852079425</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>325.4155075378395</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>208.4934407403657</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>113.0570237860308</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315254</v>
+        <v>161.4049813873529</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>415.1623968444632</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>781.4924278011932</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.360316885667</v>
+        <v>1175.419705908976</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>1566.598315123075</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1886.051410937594</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2118.658911371253</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2246.039440032001</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2206.989752617337</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2066.084638271971</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1895.098792669304</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1656.776695622755</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1452.872977244675</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1214.236577035522</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1037.027795965311</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>867.0159866495887</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1703.358762105092</v>
+        <v>1630.004499944391</v>
       </c>
       <c r="C14" t="n">
-        <v>1381.845878112754</v>
+        <v>1311.822752831787</v>
       </c>
       <c r="D14" t="n">
-        <v>1071.029812454077</v>
+        <v>1004.337824052844</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>669.3303412824068</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>309.1252063206066</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,16 +5278,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3266.095922964073</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941466</v>
+        <v>3110.898945176103</v>
       </c>
       <c r="U14" t="n">
-        <v>2960.996863163376</v>
+        <v>2908.149238277746</v>
       </c>
       <c r="V14" t="n">
-        <v>2677.383608767878</v>
+        <v>2627.867120761983</v>
       </c>
       <c r="W14" t="n">
-        <v>2372.064586445837</v>
+        <v>2627.867120761983</v>
       </c>
       <c r="X14" t="n">
-        <v>2046.048461132831</v>
+        <v>2305.18213232871</v>
       </c>
       <c r="Y14" t="n">
-        <v>1703.358762105092</v>
+        <v>1965.823570180706</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5360,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>736.1482916471564</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>617.9928785470568</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>518.6570089625284</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>421.5246852079425</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>325.4155075378395</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>208.4934407403657</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>113.0570237860308</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>131.7582457732244</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>385.5156612303347</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>751.8456921870647</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1096.002737786614</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1487.181347000712</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1836.28117842936</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2118.658911371253</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2246.039440032001</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2206.989752617337</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2066.084638271971</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1895.098792669304</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1656.776695622755</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1452.872977244675</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1214.236577035522</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1037.027795965311</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>867.0159866495887</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1899.80899531458</v>
+        <v>1873.510837516391</v>
       </c>
       <c r="C17" t="n">
-        <v>1599.250875465449</v>
+        <v>1577.388338437957</v>
       </c>
       <c r="D17" t="n">
-        <v>1309.389573949979</v>
+        <v>1291.962657693183</v>
       </c>
       <c r="E17" t="n">
-        <v>992.0057184430152</v>
+        <v>979.0144229569157</v>
       </c>
       <c r="F17" t="n">
-        <v>649.4242107446883</v>
+        <v>640.868536029285</v>
       </c>
       <c r="G17" t="n">
-        <v>302.7561576809654</v>
+        <v>298.6361037362583</v>
       </c>
       <c r="H17" t="n">
-        <v>73.57695438101315</v>
+        <v>73.89252120700242</v>
       </c>
       <c r="I17" t="n">
-        <v>73.57695438101315</v>
+        <v>73.89252120700242</v>
       </c>
       <c r="J17" t="n">
-        <v>262.4560853400386</v>
+        <v>262.7716521660278</v>
       </c>
       <c r="K17" t="n">
-        <v>917.1794174753379</v>
+        <v>596.5910258558742</v>
       </c>
       <c r="L17" t="n">
-        <v>1368.213630723747</v>
+        <v>1409.265073070414</v>
       </c>
       <c r="M17" t="n">
-        <v>1901.745535395671</v>
+        <v>1942.796977742339</v>
       </c>
       <c r="N17" t="n">
-        <v>2448.524352454453</v>
+        <v>2489.575794801121</v>
       </c>
       <c r="O17" t="n">
-        <v>2951.49682333379</v>
+        <v>2992.548265680458</v>
       </c>
       <c r="P17" t="n">
-        <v>3371.544290738173</v>
+        <v>3387.322632037636</v>
       </c>
       <c r="Q17" t="n">
-        <v>3619.830652493855</v>
+        <v>3635.608993793318</v>
       </c>
       <c r="R17" t="n">
-        <v>3678.847719050657</v>
+        <v>3694.62606035012</v>
       </c>
       <c r="S17" t="n">
-        <v>3636.961447669033</v>
+        <v>3657.175409739192</v>
       </c>
       <c r="T17" t="n">
-        <v>3499.388097144536</v>
+        <v>3524.037679985391</v>
       </c>
       <c r="U17" t="n">
-        <v>3314.262017509653</v>
+        <v>3343.347221121205</v>
       </c>
       <c r="V17" t="n">
-        <v>3051.603527257363</v>
+        <v>3085.124351639611</v>
       </c>
       <c r="W17" t="n">
-        <v>2767.239269078529</v>
+        <v>2805.195714231474</v>
       </c>
       <c r="X17" t="n">
-        <v>2539.739373171952</v>
+        <v>2504.569973832371</v>
       </c>
       <c r="Y17" t="n">
-        <v>2218.004438287421</v>
+        <v>2187.270659718536</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>948.6086924299383</v>
+        <v>948.9242592559277</v>
       </c>
       <c r="C18" t="n">
-        <v>774.1556631488113</v>
+        <v>774.4712299748007</v>
       </c>
       <c r="D18" t="n">
-        <v>625.22125348756</v>
+        <v>625.5368203135495</v>
       </c>
       <c r="E18" t="n">
-        <v>465.9837984821046</v>
+        <v>466.2993653080939</v>
       </c>
       <c r="F18" t="n">
-        <v>319.4492405089896</v>
+        <v>319.7648073349789</v>
       </c>
       <c r="G18" t="n">
-        <v>183.0861403416077</v>
+        <v>183.401707167597</v>
       </c>
       <c r="H18" t="n">
-        <v>92.58424597947521</v>
+        <v>92.89981280546448</v>
       </c>
       <c r="I18" t="n">
-        <v>73.57695438101315</v>
+        <v>73.89252120700242</v>
       </c>
       <c r="J18" t="n">
-        <v>167.2542238716304</v>
+        <v>167.5697906976197</v>
       </c>
       <c r="K18" t="n">
-        <v>405.5184228519775</v>
+        <v>405.8339896779668</v>
       </c>
       <c r="L18" t="n">
-        <v>772.2165831646428</v>
+        <v>772.532149990632</v>
       </c>
       <c r="M18" t="n">
-        <v>1219.492908386959</v>
+        <v>1219.808475212948</v>
       </c>
       <c r="N18" t="n">
-        <v>1693.015951941413</v>
+        <v>1693.331518767402</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.977231359469</v>
+        <v>2104.292798185457</v>
       </c>
       <c r="P18" t="n">
-        <v>2414.476822835571</v>
+        <v>2414.79238966156</v>
       </c>
       <c r="Q18" t="n">
-        <v>2572.118380482171</v>
+        <v>2572.43394730816</v>
       </c>
       <c r="R18" t="n">
-        <v>2571.974027074686</v>
+        <v>2572.289593900675</v>
       </c>
       <c r="S18" t="n">
-        <v>2442.536140568166</v>
+        <v>2442.851707394155</v>
       </c>
       <c r="T18" t="n">
-        <v>2249.893140246022</v>
+        <v>2250.208707072011</v>
       </c>
       <c r="U18" t="n">
-        <v>2021.825293380437</v>
+        <v>2022.140860206427</v>
       </c>
       <c r="V18" t="n">
-        <v>1786.673185148695</v>
+        <v>1786.988751974684</v>
       </c>
       <c r="W18" t="n">
-        <v>1532.435828420493</v>
+        <v>1532.751395246482</v>
       </c>
       <c r="X18" t="n">
-        <v>1324.58432821496</v>
+        <v>1324.89989504095</v>
       </c>
       <c r="Y18" t="n">
-        <v>1116.824029450006</v>
+        <v>1117.139596275996</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>619.8477387516728</v>
+        <v>589.1139601827882</v>
       </c>
       <c r="C19" t="n">
-        <v>519.3159529150465</v>
+        <v>493.0177951168582</v>
       </c>
       <c r="D19" t="n">
-        <v>437.6037105939914</v>
+        <v>415.7411735664994</v>
       </c>
       <c r="E19" t="n">
-        <v>358.0950141028789</v>
+        <v>340.6680978460831</v>
       </c>
       <c r="F19" t="n">
-        <v>279.6094636962492</v>
+        <v>266.6181682101496</v>
       </c>
       <c r="G19" t="n">
-        <v>180.3110241622488</v>
+        <v>171.7553494468455</v>
       </c>
       <c r="H19" t="n">
-        <v>102.4982344713872</v>
+        <v>98.37818052668018</v>
       </c>
       <c r="I19" t="n">
-        <v>73.57695438101315</v>
+        <v>73.89252120700242</v>
       </c>
       <c r="J19" t="n">
-        <v>118.6995868279487</v>
+        <v>119.0151536539379</v>
       </c>
       <c r="K19" t="n">
-        <v>322.686769776825</v>
+        <v>323.0023366028142</v>
       </c>
       <c r="L19" t="n">
-        <v>639.2465682253212</v>
+        <v>639.5621350513104</v>
       </c>
       <c r="M19" t="n">
-        <v>1020.170469552806</v>
+        <v>983.7191806508594</v>
       </c>
       <c r="N19" t="n">
-        <v>1361.578846258671</v>
+        <v>1325.127557356724</v>
       </c>
       <c r="O19" t="n">
-        <v>1660.908445179084</v>
+        <v>1624.457156277138</v>
       </c>
       <c r="P19" t="n">
-        <v>1893.515945612743</v>
+        <v>1857.064656710797</v>
       </c>
       <c r="Q19" t="n">
-        <v>1971.126241765258</v>
+        <v>1934.674952863311</v>
       </c>
       <c r="R19" t="n">
-        <v>1949.700181614066</v>
+        <v>1917.684513482816</v>
       </c>
       <c r="S19" t="n">
-        <v>1826.418694532174</v>
+        <v>1764.635570568415</v>
       </c>
       <c r="T19" t="n">
-        <v>1673.05647619298</v>
+        <v>1615.708972999918</v>
       </c>
       <c r="U19" t="n">
-        <v>1452.358006409904</v>
+        <v>1399.446123987538</v>
       </c>
       <c r="V19" t="n">
-        <v>1266.077915295298</v>
+        <v>1217.601653643628</v>
       </c>
       <c r="W19" t="n">
-        <v>1045.065142349618</v>
+        <v>1001.024501468645</v>
       </c>
       <c r="X19" t="n">
-        <v>885.4799885428813</v>
+        <v>845.8749684326043</v>
       </c>
       <c r="Y19" t="n">
-        <v>733.0918064906318</v>
+        <v>697.9224071510511</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1899.80899531458</v>
+        <v>1873.510837516392</v>
       </c>
       <c r="C20" t="n">
-        <v>1599.250875465449</v>
+        <v>1577.388338437957</v>
       </c>
       <c r="D20" t="n">
-        <v>1309.389573949979</v>
+        <v>1291.962657693183</v>
       </c>
       <c r="E20" t="n">
-        <v>992.0057184430152</v>
+        <v>979.0144229569157</v>
       </c>
       <c r="F20" t="n">
-        <v>649.4242107446883</v>
+        <v>640.868536029285</v>
       </c>
       <c r="G20" t="n">
-        <v>302.7561576809654</v>
+        <v>298.6361037362583</v>
       </c>
       <c r="H20" t="n">
-        <v>73.57695438101315</v>
+        <v>73.89252120700242</v>
       </c>
       <c r="I20" t="n">
-        <v>73.57695438101315</v>
+        <v>73.89252120700242</v>
       </c>
       <c r="J20" t="n">
-        <v>262.4560853400386</v>
+        <v>430.1773011863808</v>
       </c>
       <c r="K20" t="n">
-        <v>596.2754590298849</v>
+        <v>763.9966748762272</v>
       </c>
       <c r="L20" t="n">
-        <v>1047.309672278293</v>
+        <v>1215.030888124636</v>
       </c>
       <c r="M20" t="n">
-        <v>1580.841576950218</v>
+        <v>1748.56279279656</v>
       </c>
       <c r="N20" t="n">
-        <v>2127.620394009</v>
+        <v>2295.341609855343</v>
       </c>
       <c r="O20" t="n">
-        <v>2630.592864888337</v>
+        <v>2798.314080734679</v>
       </c>
       <c r="P20" t="n">
-        <v>3096.293194310614</v>
+        <v>3193.088447091857</v>
       </c>
       <c r="Q20" t="n">
-        <v>3554.771396819602</v>
+        <v>3570.549738119065</v>
       </c>
       <c r="R20" t="n">
-        <v>3678.847719050657</v>
+        <v>3694.62606035012</v>
       </c>
       <c r="S20" t="n">
-        <v>3636.961447669033</v>
+        <v>3657.175409739193</v>
       </c>
       <c r="T20" t="n">
-        <v>3499.388097144536</v>
+        <v>3524.037679985392</v>
       </c>
       <c r="U20" t="n">
-        <v>3314.262017509653</v>
+        <v>3343.347221121205</v>
       </c>
       <c r="V20" t="n">
-        <v>3129.164992520585</v>
+        <v>3085.124351639611</v>
       </c>
       <c r="W20" t="n">
-        <v>2844.800734341751</v>
+        <v>2805.195714231475</v>
       </c>
       <c r="X20" t="n">
-        <v>2539.739373171952</v>
+        <v>2504.569973832371</v>
       </c>
       <c r="Y20" t="n">
-        <v>2218.004438287421</v>
+        <v>2187.270659718537</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>948.6086924299383</v>
+        <v>948.9242592559277</v>
       </c>
       <c r="C21" t="n">
-        <v>774.1556631488113</v>
+        <v>774.4712299748007</v>
       </c>
       <c r="D21" t="n">
-        <v>625.22125348756</v>
+        <v>625.5368203135495</v>
       </c>
       <c r="E21" t="n">
-        <v>465.9837984821046</v>
+        <v>466.2993653080939</v>
       </c>
       <c r="F21" t="n">
-        <v>319.4492405089896</v>
+        <v>319.7648073349789</v>
       </c>
       <c r="G21" t="n">
-        <v>183.0861403416077</v>
+        <v>183.401707167597</v>
       </c>
       <c r="H21" t="n">
-        <v>92.58424597947521</v>
+        <v>92.89981280546448</v>
       </c>
       <c r="I21" t="n">
-        <v>73.57695438101315</v>
+        <v>73.89252120700242</v>
       </c>
       <c r="J21" t="n">
-        <v>167.2542238716304</v>
+        <v>167.5697906976197</v>
       </c>
       <c r="K21" t="n">
-        <v>405.5184228519784</v>
+        <v>405.8339896779668</v>
       </c>
       <c r="L21" t="n">
-        <v>772.2165831646437</v>
+        <v>772.532149990632</v>
       </c>
       <c r="M21" t="n">
-        <v>1219.492908386959</v>
+        <v>1219.808475212948</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.015951941414</v>
+        <v>1693.331518767402</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.977231359469</v>
+        <v>2104.292798185457</v>
       </c>
       <c r="P21" t="n">
-        <v>2414.476822835571</v>
+        <v>2414.792389661559</v>
       </c>
       <c r="Q21" t="n">
-        <v>2572.118380482171</v>
+        <v>2572.433947308159</v>
       </c>
       <c r="R21" t="n">
-        <v>2571.974027074686</v>
+        <v>2572.289593900675</v>
       </c>
       <c r="S21" t="n">
-        <v>2442.536140568166</v>
+        <v>2442.851707394155</v>
       </c>
       <c r="T21" t="n">
-        <v>2249.893140246022</v>
+        <v>2250.208707072011</v>
       </c>
       <c r="U21" t="n">
-        <v>2021.825293380437</v>
+        <v>2022.140860206427</v>
       </c>
       <c r="V21" t="n">
-        <v>1786.673185148695</v>
+        <v>1786.988751974684</v>
       </c>
       <c r="W21" t="n">
-        <v>1532.435828420493</v>
+        <v>1532.751395246482</v>
       </c>
       <c r="X21" t="n">
-        <v>1324.58432821496</v>
+        <v>1324.89989504095</v>
       </c>
       <c r="Y21" t="n">
-        <v>1116.824029450006</v>
+        <v>1117.139596275996</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>619.8477387516728</v>
+        <v>589.1139601827882</v>
       </c>
       <c r="C22" t="n">
-        <v>519.3159529150465</v>
+        <v>493.0177951168582</v>
       </c>
       <c r="D22" t="n">
-        <v>437.6037105939914</v>
+        <v>415.7411735664994</v>
       </c>
       <c r="E22" t="n">
-        <v>358.0950141028789</v>
+        <v>340.6680978460831</v>
       </c>
       <c r="F22" t="n">
-        <v>279.6094636962492</v>
+        <v>266.6181682101496</v>
       </c>
       <c r="G22" t="n">
-        <v>180.3110241622488</v>
+        <v>171.7553494468455</v>
       </c>
       <c r="H22" t="n">
-        <v>102.4982344713872</v>
+        <v>98.37818052668018</v>
       </c>
       <c r="I22" t="n">
-        <v>73.57695438101315</v>
+        <v>73.89252120700242</v>
       </c>
       <c r="J22" t="n">
-        <v>118.6995868279487</v>
+        <v>119.0151536539379</v>
       </c>
       <c r="K22" t="n">
-        <v>322.686769776825</v>
+        <v>323.0023366028142</v>
       </c>
       <c r="L22" t="n">
-        <v>639.2465682253212</v>
+        <v>639.5621350513104</v>
       </c>
       <c r="M22" t="n">
-        <v>983.4036138248701</v>
+        <v>983.7191806508594</v>
       </c>
       <c r="N22" t="n">
-        <v>1361.578846258671</v>
+        <v>1325.127557356724</v>
       </c>
       <c r="O22" t="n">
-        <v>1660.908445179084</v>
+        <v>1624.457156277138</v>
       </c>
       <c r="P22" t="n">
-        <v>1893.515945612743</v>
+        <v>1857.064656710797</v>
       </c>
       <c r="Q22" t="n">
-        <v>1971.126241765258</v>
+        <v>1934.674952863311</v>
       </c>
       <c r="R22" t="n">
-        <v>1949.700181614066</v>
+        <v>1917.684513482816</v>
       </c>
       <c r="S22" t="n">
-        <v>1826.418694532174</v>
+        <v>1798.838647171619</v>
       </c>
       <c r="T22" t="n">
-        <v>1673.05647619298</v>
+        <v>1649.912049603122</v>
       </c>
       <c r="U22" t="n">
-        <v>1452.358006409904</v>
+        <v>1433.649200590743</v>
       </c>
       <c r="V22" t="n">
-        <v>1266.077915295298</v>
+        <v>1251.804730246833</v>
       </c>
       <c r="W22" t="n">
-        <v>1045.065142349618</v>
+        <v>1035.227578071849</v>
       </c>
       <c r="X22" t="n">
-        <v>885.4799885428813</v>
+        <v>880.0780450358087</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.0918064906318</v>
+        <v>732.1254837542555</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1901.391882360768</v>
+        <v>1873.510837516391</v>
       </c>
       <c r="C23" t="n">
-        <v>1600.833762511637</v>
+        <v>1577.388338437957</v>
       </c>
       <c r="D23" t="n">
-        <v>1310.972460996167</v>
+        <v>1291.962657693183</v>
       </c>
       <c r="E23" t="n">
-        <v>993.5886054892035</v>
+        <v>979.0144229569157</v>
       </c>
       <c r="F23" t="n">
-        <v>651.0070977908765</v>
+        <v>640.868536029285</v>
       </c>
       <c r="G23" t="n">
-        <v>304.3390447271536</v>
+        <v>298.6361037362583</v>
       </c>
       <c r="H23" t="n">
-        <v>75.15984142720137</v>
+        <v>73.89252120700243</v>
       </c>
       <c r="I23" t="n">
-        <v>75.15984142720137</v>
+        <v>73.89252120700243</v>
       </c>
       <c r="J23" t="n">
-        <v>264.0389723862268</v>
+        <v>262.7716521660278</v>
       </c>
       <c r="K23" t="n">
-        <v>597.8583460760731</v>
+        <v>596.5910258558742</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.377161729428</v>
+        <v>1047.625239104283</v>
       </c>
       <c r="M23" t="n">
-        <v>1995.909066401352</v>
+        <v>1942.79697774234</v>
       </c>
       <c r="N23" t="n">
-        <v>2542.687883460134</v>
+        <v>2489.575794801122</v>
       </c>
       <c r="O23" t="n">
-        <v>3045.660354339471</v>
+        <v>2992.548265680459</v>
       </c>
       <c r="P23" t="n">
-        <v>3450.688643047583</v>
+        <v>3387.322632037637</v>
       </c>
       <c r="Q23" t="n">
-        <v>3698.975004803266</v>
+        <v>3635.608993793319</v>
       </c>
       <c r="R23" t="n">
-        <v>3757.992071360068</v>
+        <v>3694.626060350121</v>
       </c>
       <c r="S23" t="n">
-        <v>3716.105799978444</v>
+        <v>3657.175409739193</v>
       </c>
       <c r="T23" t="n">
-        <v>3578.532449453947</v>
+        <v>3524.037679985392</v>
       </c>
       <c r="U23" t="n">
-        <v>3393.406369819063</v>
+        <v>3343.347221121205</v>
       </c>
       <c r="V23" t="n">
-        <v>3130.747879566773</v>
+        <v>3085.124351639611</v>
       </c>
       <c r="W23" t="n">
-        <v>2846.383621387939</v>
+        <v>2805.195714231474</v>
       </c>
       <c r="X23" t="n">
-        <v>2541.32226021814</v>
+        <v>2504.569973832371</v>
       </c>
       <c r="Y23" t="n">
-        <v>2219.587325333609</v>
+        <v>2187.270659718536</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.1915794761265</v>
+        <v>948.9242592559277</v>
       </c>
       <c r="C24" t="n">
-        <v>775.7385501949996</v>
+        <v>774.4712299748007</v>
       </c>
       <c r="D24" t="n">
-        <v>626.8041405337483</v>
+        <v>625.5368203135495</v>
       </c>
       <c r="E24" t="n">
-        <v>467.5666855282929</v>
+        <v>466.2993653080939</v>
       </c>
       <c r="F24" t="n">
-        <v>321.0321275551779</v>
+        <v>319.7648073349789</v>
       </c>
       <c r="G24" t="n">
-        <v>184.6690273877959</v>
+        <v>183.401707167597</v>
       </c>
       <c r="H24" t="n">
-        <v>94.16713302566345</v>
+        <v>92.89981280546451</v>
       </c>
       <c r="I24" t="n">
-        <v>75.15984142720137</v>
+        <v>73.89252120700243</v>
       </c>
       <c r="J24" t="n">
-        <v>168.8371109178186</v>
+        <v>167.5697906976197</v>
       </c>
       <c r="K24" t="n">
-        <v>407.1013098981657</v>
+        <v>405.8339896779668</v>
       </c>
       <c r="L24" t="n">
-        <v>773.799470210831</v>
+        <v>772.532149990632</v>
       </c>
       <c r="M24" t="n">
-        <v>1221.075795433147</v>
+        <v>1219.808475212948</v>
       </c>
       <c r="N24" t="n">
-        <v>1694.598838987601</v>
+        <v>1693.331518767402</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.560118405656</v>
+        <v>2104.292798185457</v>
       </c>
       <c r="P24" t="n">
-        <v>2416.059709881759</v>
+        <v>2414.792389661559</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.701267528359</v>
+        <v>2572.43394730816</v>
       </c>
       <c r="R24" t="n">
-        <v>2573.556914120874</v>
+        <v>2572.289593900675</v>
       </c>
       <c r="S24" t="n">
-        <v>2444.119027614354</v>
+        <v>2442.851707394155</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.47602729221</v>
+        <v>2250.208707072011</v>
       </c>
       <c r="U24" t="n">
-        <v>2023.408180426625</v>
+        <v>2022.140860206427</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.256072194883</v>
+        <v>1786.988751974684</v>
       </c>
       <c r="W24" t="n">
-        <v>1534.018715466681</v>
+        <v>1532.751395246482</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.167215261148</v>
+        <v>1324.89989504095</v>
       </c>
       <c r="Y24" t="n">
-        <v>1118.406916496195</v>
+        <v>1117.139596275996</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>621.430625797861</v>
+        <v>623.3170367859926</v>
       </c>
       <c r="C25" t="n">
-        <v>520.8988399612347</v>
+        <v>527.2208717200626</v>
       </c>
       <c r="D25" t="n">
-        <v>439.1865976401796</v>
+        <v>449.9442501697038</v>
       </c>
       <c r="E25" t="n">
-        <v>359.6779011490671</v>
+        <v>374.8711744492876</v>
       </c>
       <c r="F25" t="n">
-        <v>281.1923507424374</v>
+        <v>266.6181682101496</v>
       </c>
       <c r="G25" t="n">
-        <v>181.893911208437</v>
+        <v>171.7553494468455</v>
       </c>
       <c r="H25" t="n">
-        <v>104.0811215175754</v>
+        <v>98.3781805266802</v>
       </c>
       <c r="I25" t="n">
-        <v>75.15984142720137</v>
+        <v>73.89252120700243</v>
       </c>
       <c r="J25" t="n">
-        <v>120.2824738741369</v>
+        <v>119.015153653938</v>
       </c>
       <c r="K25" t="n">
-        <v>324.2696568230132</v>
+        <v>323.0023366028143</v>
       </c>
       <c r="L25" t="n">
-        <v>640.8294552715093</v>
+        <v>639.5621350513104</v>
       </c>
       <c r="M25" t="n">
-        <v>984.9865008710583</v>
+        <v>983.7191806508594</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.394877576923</v>
+        <v>1325.127557356724</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.724476497336</v>
+        <v>1624.457156277138</v>
       </c>
       <c r="P25" t="n">
-        <v>1895.098832658932</v>
+        <v>1857.064656710797</v>
       </c>
       <c r="Q25" t="n">
-        <v>1972.709128811446</v>
+        <v>1934.674952863311</v>
       </c>
       <c r="R25" t="n">
-        <v>1951.283068660255</v>
+        <v>1917.684513482816</v>
       </c>
       <c r="S25" t="n">
-        <v>1828.001581578362</v>
+        <v>1798.838647171619</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.639363239168</v>
+        <v>1649.912049603122</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.940893456093</v>
+        <v>1433.649200590743</v>
       </c>
       <c r="V25" t="n">
-        <v>1267.660802341486</v>
+        <v>1251.804730246833</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.648029395806</v>
+        <v>1035.227578071849</v>
       </c>
       <c r="X25" t="n">
-        <v>887.0628755890696</v>
+        <v>880.0780450358087</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.6746935368201</v>
+        <v>732.1254837542555</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N26" t="n">
-        <v>2787.236323611206</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O26" t="n">
-        <v>3290.208794490542</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.98316084772</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6259,7 +6259,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094416</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6560,7 +6560,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6688,64 +6688,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398489</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.404136464985</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.93604113691</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.714858195692</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075029</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277657</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6800,28 +6800,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899672</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913848</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415476</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643397</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.267502797317</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982196</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350175</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308446</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481266</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167332</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572253</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277854</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052754</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.38513864407</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1866.568367344627</v>
+        <v>1873.510837516391</v>
       </c>
       <c r="C35" t="n">
-        <v>1571.550352157155</v>
+        <v>1577.388338437956</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.229155303344</v>
+        <v>1291.962657693183</v>
       </c>
       <c r="E35" t="n">
-        <v>975.3854044580389</v>
+        <v>979.0144229569153</v>
       </c>
       <c r="F35" t="n">
-        <v>638.3440014213708</v>
+        <v>640.8685360292848</v>
       </c>
       <c r="G35" t="n">
-        <v>297.2160530193066</v>
+        <v>298.6361037362582</v>
       </c>
       <c r="H35" t="n">
-        <v>73.57695438101315</v>
+        <v>73.8925212070024</v>
       </c>
       <c r="I35" t="n">
-        <v>73.57695438101315</v>
+        <v>73.8925212070024</v>
       </c>
       <c r="J35" t="n">
-        <v>262.4560853400386</v>
+        <v>262.7716521660278</v>
       </c>
       <c r="K35" t="n">
-        <v>596.275459029885</v>
+        <v>596.5910258558742</v>
       </c>
       <c r="L35" t="n">
-        <v>1047.309672278294</v>
+        <v>1047.625239104283</v>
       </c>
       <c r="M35" t="n">
-        <v>1580.841576950218</v>
+        <v>1581.157143776207</v>
       </c>
       <c r="N35" t="n">
-        <v>2127.620394009001</v>
+        <v>2489.575794801121</v>
       </c>
       <c r="O35" t="n">
-        <v>2630.592864888338</v>
+        <v>2992.548265680457</v>
       </c>
       <c r="P35" t="n">
-        <v>3096.293194310614</v>
+        <v>3387.322632037635</v>
       </c>
       <c r="Q35" t="n">
-        <v>3554.771396819602</v>
+        <v>3635.608993793317</v>
       </c>
       <c r="R35" t="n">
-        <v>3678.847719050657</v>
+        <v>3694.62606035012</v>
       </c>
       <c r="S35" t="n">
-        <v>3642.501552330692</v>
+        <v>3657.175409739192</v>
       </c>
       <c r="T35" t="n">
-        <v>3510.468306467853</v>
+        <v>3524.037679985391</v>
       </c>
       <c r="U35" t="n">
-        <v>3330.882331494629</v>
+        <v>3343.347221121204</v>
       </c>
       <c r="V35" t="n">
-        <v>3073.763945903997</v>
+        <v>3085.124351639611</v>
       </c>
       <c r="W35" t="n">
-        <v>2794.939792386822</v>
+        <v>2805.195714231474</v>
       </c>
       <c r="X35" t="n">
-        <v>2495.418535878682</v>
+        <v>2504.569973832371</v>
       </c>
       <c r="Y35" t="n">
-        <v>2179.22370565581</v>
+        <v>2187.270659718536</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>948.6086924299384</v>
+        <v>948.9242592559277</v>
       </c>
       <c r="C36" t="n">
-        <v>774.1556631488114</v>
+        <v>774.4712299748007</v>
       </c>
       <c r="D36" t="n">
-        <v>625.2212534875603</v>
+        <v>625.5368203135495</v>
       </c>
       <c r="E36" t="n">
-        <v>465.9837984821047</v>
+        <v>466.2993653080939</v>
       </c>
       <c r="F36" t="n">
-        <v>319.4492405089898</v>
+        <v>319.7648073349789</v>
       </c>
       <c r="G36" t="n">
-        <v>183.0861403416077</v>
+        <v>183.401707167597</v>
       </c>
       <c r="H36" t="n">
-        <v>92.5842459794752</v>
+        <v>92.89981280546448</v>
       </c>
       <c r="I36" t="n">
-        <v>73.57695438101315</v>
+        <v>73.8925212070024</v>
       </c>
       <c r="J36" t="n">
-        <v>167.2542238716308</v>
+        <v>167.5697906976197</v>
       </c>
       <c r="K36" t="n">
-        <v>405.5184228519779</v>
+        <v>405.8339896779668</v>
       </c>
       <c r="L36" t="n">
-        <v>772.2165831646433</v>
+        <v>772.532149990632</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.492908386959</v>
+        <v>1219.808475212948</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.015951941414</v>
+        <v>1693.331518767402</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.977231359469</v>
+        <v>2104.292798185457</v>
       </c>
       <c r="P36" t="n">
-        <v>2414.476822835572</v>
+        <v>2414.792389661559</v>
       </c>
       <c r="Q36" t="n">
-        <v>2572.118380482171</v>
+        <v>2572.433947308159</v>
       </c>
       <c r="R36" t="n">
-        <v>2571.974027074687</v>
+        <v>2572.289593900675</v>
       </c>
       <c r="S36" t="n">
-        <v>2442.536140568167</v>
+        <v>2442.851707394155</v>
       </c>
       <c r="T36" t="n">
-        <v>2249.893140246022</v>
+        <v>2250.208707072011</v>
       </c>
       <c r="U36" t="n">
-        <v>2021.825293380438</v>
+        <v>2022.140860206427</v>
       </c>
       <c r="V36" t="n">
-        <v>1786.673185148695</v>
+        <v>1786.988751974684</v>
       </c>
       <c r="W36" t="n">
-        <v>1532.435828420493</v>
+        <v>1532.751395246482</v>
       </c>
       <c r="X36" t="n">
-        <v>1324.58432821496</v>
+        <v>1324.89989504095</v>
       </c>
       <c r="Y36" t="n">
-        <v>1116.824029450006</v>
+        <v>1117.139596275996</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>632.941824978666</v>
+        <v>623.3170367859937</v>
       </c>
       <c r="C37" t="n">
-        <v>537.9501438036983</v>
+        <v>493.0177951168577</v>
       </c>
       <c r="D37" t="n">
-        <v>461.7780061443019</v>
+        <v>415.7411735664989</v>
       </c>
       <c r="E37" t="n">
-        <v>387.8094143148481</v>
+        <v>340.6680978460828</v>
       </c>
       <c r="F37" t="n">
-        <v>314.8639685698771</v>
+        <v>266.6181682101494</v>
       </c>
       <c r="G37" t="n">
-        <v>169.2308148389314</v>
+        <v>171.7553494468453</v>
       </c>
       <c r="H37" t="n">
-        <v>96.95812980972849</v>
+        <v>98.37818052668008</v>
       </c>
       <c r="I37" t="n">
-        <v>73.57695438101315</v>
+        <v>73.8925212070024</v>
       </c>
       <c r="J37" t="n">
-        <v>118.6995868279487</v>
+        <v>119.0151536539379</v>
       </c>
       <c r="K37" t="n">
-        <v>322.6867697768251</v>
+        <v>323.0023366028142</v>
       </c>
       <c r="L37" t="n">
-        <v>639.2465682253212</v>
+        <v>639.5621350513104</v>
       </c>
       <c r="M37" t="n">
-        <v>983.4036138248703</v>
+        <v>983.7191806508594</v>
       </c>
       <c r="N37" t="n">
-        <v>1324.811990530735</v>
+        <v>1325.127557356724</v>
       </c>
       <c r="O37" t="n">
-        <v>1624.141589451148</v>
+        <v>1624.457156277138</v>
       </c>
       <c r="P37" t="n">
-        <v>1856.749089884808</v>
+        <v>1857.064656710797</v>
       </c>
       <c r="Q37" t="n">
-        <v>1934.359386037323</v>
+        <v>1934.674952863311</v>
       </c>
       <c r="R37" t="n">
-        <v>1918.47343054779</v>
+        <v>1917.684513482816</v>
       </c>
       <c r="S37" t="n">
-        <v>1800.732048127556</v>
+        <v>1798.83864717162</v>
       </c>
       <c r="T37" t="n">
-        <v>1652.909934450021</v>
+        <v>1649.912049603123</v>
       </c>
       <c r="U37" t="n">
-        <v>1437.751569328604</v>
+        <v>1433.649200590743</v>
       </c>
       <c r="V37" t="n">
-        <v>1257.011582875656</v>
+        <v>1251.804730246834</v>
       </c>
       <c r="W37" t="n">
-        <v>1041.538914591635</v>
+        <v>1035.22757807185</v>
       </c>
       <c r="X37" t="n">
-        <v>887.4938654465572</v>
+        <v>880.0780450358095</v>
       </c>
       <c r="Y37" t="n">
-        <v>740.6457880559664</v>
+        <v>732.1254837542564</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1866.568367344628</v>
+        <v>1873.510837516391</v>
       </c>
       <c r="C38" t="n">
-        <v>1571.550352157155</v>
+        <v>1577.388338437956</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.229155303344</v>
+        <v>1291.962657693183</v>
       </c>
       <c r="E38" t="n">
-        <v>975.3854044580391</v>
+        <v>979.0144229569153</v>
       </c>
       <c r="F38" t="n">
-        <v>638.3440014213709</v>
+        <v>640.8685360292848</v>
       </c>
       <c r="G38" t="n">
-        <v>297.2160530193067</v>
+        <v>298.6361037362582</v>
       </c>
       <c r="H38" t="n">
-        <v>73.57695438101315</v>
+        <v>73.8925212070024</v>
       </c>
       <c r="I38" t="n">
-        <v>73.57695438101315</v>
+        <v>73.8925212070024</v>
       </c>
       <c r="J38" t="n">
-        <v>429.8617343603916</v>
+        <v>262.7716521660278</v>
       </c>
       <c r="K38" t="n">
-        <v>877.3932628482901</v>
+        <v>596.5910258558742</v>
       </c>
       <c r="L38" t="n">
-        <v>1328.427476096699</v>
+        <v>1047.625239104283</v>
       </c>
       <c r="M38" t="n">
-        <v>1861.959380768623</v>
+        <v>1581.157143776207</v>
       </c>
       <c r="N38" t="n">
-        <v>2408.738197827405</v>
+        <v>2489.575794801121</v>
       </c>
       <c r="O38" t="n">
-        <v>2911.710668706742</v>
+        <v>2992.548265680457</v>
       </c>
       <c r="P38" t="n">
-        <v>3306.48503506392</v>
+        <v>3387.322632037635</v>
       </c>
       <c r="Q38" t="n">
-        <v>3554.771396819602</v>
+        <v>3635.608993793317</v>
       </c>
       <c r="R38" t="n">
-        <v>3678.847719050657</v>
+        <v>3694.62606035012</v>
       </c>
       <c r="S38" t="n">
-        <v>3642.501552330692</v>
+        <v>3657.175409739192</v>
       </c>
       <c r="T38" t="n">
-        <v>3510.468306467853</v>
+        <v>3524.03767998539</v>
       </c>
       <c r="U38" t="n">
-        <v>3330.882331494629</v>
+        <v>3343.347221121204</v>
       </c>
       <c r="V38" t="n">
-        <v>3073.763945903998</v>
+        <v>3085.12435163961</v>
       </c>
       <c r="W38" t="n">
-        <v>2794.939792386823</v>
+        <v>2805.195714231473</v>
       </c>
       <c r="X38" t="n">
-        <v>2495.418535878683</v>
+        <v>2504.56997383237</v>
       </c>
       <c r="Y38" t="n">
-        <v>2179.22370565581</v>
+        <v>2187.270659718536</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>948.6086924299377</v>
+        <v>948.9242592559277</v>
       </c>
       <c r="C39" t="n">
-        <v>774.1556631488107</v>
+        <v>774.4712299748007</v>
       </c>
       <c r="D39" t="n">
-        <v>625.2212534875595</v>
+        <v>625.5368203135495</v>
       </c>
       <c r="E39" t="n">
-        <v>465.983798482104</v>
+        <v>466.2993653080939</v>
       </c>
       <c r="F39" t="n">
-        <v>319.449240508989</v>
+        <v>319.7648073349789</v>
       </c>
       <c r="G39" t="n">
-        <v>183.0861403416071</v>
+        <v>183.401707167597</v>
       </c>
       <c r="H39" t="n">
-        <v>92.58424597947457</v>
+        <v>92.89981280546448</v>
       </c>
       <c r="I39" t="n">
-        <v>73.57695438101315</v>
+        <v>73.8925212070024</v>
       </c>
       <c r="J39" t="n">
-        <v>167.2542238716304</v>
+        <v>167.5697906976197</v>
       </c>
       <c r="K39" t="n">
-        <v>405.5184228519775</v>
+        <v>405.8339896779668</v>
       </c>
       <c r="L39" t="n">
-        <v>772.2165831646428</v>
+        <v>772.532149990632</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.492908386959</v>
+        <v>1219.808475212948</v>
       </c>
       <c r="N39" t="n">
-        <v>1693.015951941413</v>
+        <v>1693.331518767402</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.977231359468</v>
+        <v>2104.292798185457</v>
       </c>
       <c r="P39" t="n">
-        <v>2414.476822835571</v>
+        <v>2414.792389661559</v>
       </c>
       <c r="Q39" t="n">
-        <v>2572.11838048217</v>
+        <v>2572.433947308159</v>
       </c>
       <c r="R39" t="n">
-        <v>2571.974027074686</v>
+        <v>2572.289593900675</v>
       </c>
       <c r="S39" t="n">
-        <v>2442.536140568166</v>
+        <v>2442.851707394155</v>
       </c>
       <c r="T39" t="n">
-        <v>2249.893140246021</v>
+        <v>2250.208707072011</v>
       </c>
       <c r="U39" t="n">
-        <v>2021.825293380437</v>
+        <v>2022.140860206427</v>
       </c>
       <c r="V39" t="n">
-        <v>1786.673185148694</v>
+        <v>1786.988751974684</v>
       </c>
       <c r="W39" t="n">
-        <v>1532.435828420492</v>
+        <v>1532.751395246482</v>
       </c>
       <c r="X39" t="n">
-        <v>1324.58432821496</v>
+        <v>1324.89989504095</v>
       </c>
       <c r="Y39" t="n">
-        <v>1116.824029450006</v>
+        <v>1117.139596275996</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>632.9418249786655</v>
+        <v>623.3170367859937</v>
       </c>
       <c r="C40" t="n">
-        <v>486.0753249450944</v>
+        <v>527.2208717200638</v>
       </c>
       <c r="D40" t="n">
-        <v>409.903187285698</v>
+        <v>415.7411735664989</v>
       </c>
       <c r="E40" t="n">
-        <v>335.9345954562442</v>
+        <v>340.6680978460828</v>
       </c>
       <c r="F40" t="n">
-        <v>262.9891497112731</v>
+        <v>266.6181682101494</v>
       </c>
       <c r="G40" t="n">
-        <v>169.2308148389314</v>
+        <v>171.7553494468453</v>
       </c>
       <c r="H40" t="n">
-        <v>96.9581298097285</v>
+        <v>98.37818052668008</v>
       </c>
       <c r="I40" t="n">
-        <v>73.57695438101315</v>
+        <v>73.8925212070024</v>
       </c>
       <c r="J40" t="n">
-        <v>118.6995868279487</v>
+        <v>119.0151536539379</v>
       </c>
       <c r="K40" t="n">
-        <v>322.686769776825</v>
+        <v>323.0023366028142</v>
       </c>
       <c r="L40" t="n">
-        <v>639.2465682253212</v>
+        <v>639.5621350513104</v>
       </c>
       <c r="M40" t="n">
-        <v>983.4036138248701</v>
+        <v>983.7191806508594</v>
       </c>
       <c r="N40" t="n">
-        <v>1324.811990530735</v>
+        <v>1325.127557356724</v>
       </c>
       <c r="O40" t="n">
-        <v>1624.141589451148</v>
+        <v>1624.457156277138</v>
       </c>
       <c r="P40" t="n">
-        <v>1856.749089884808</v>
+        <v>1857.064656710797</v>
       </c>
       <c r="Q40" t="n">
-        <v>1934.359386037322</v>
+        <v>1934.674952863311</v>
       </c>
       <c r="R40" t="n">
-        <v>1918.473430547789</v>
+        <v>1917.684513482816</v>
       </c>
       <c r="S40" t="n">
-        <v>1800.732048127555</v>
+        <v>1798.83864717162</v>
       </c>
       <c r="T40" t="n">
-        <v>1652.909934450021</v>
+        <v>1649.912049603123</v>
       </c>
       <c r="U40" t="n">
-        <v>1437.751569328603</v>
+        <v>1433.649200590743</v>
       </c>
       <c r="V40" t="n">
-        <v>1257.011582875656</v>
+        <v>1251.804730246834</v>
       </c>
       <c r="W40" t="n">
-        <v>1041.538914591635</v>
+        <v>1035.22757807185</v>
       </c>
       <c r="X40" t="n">
-        <v>887.4938654465567</v>
+        <v>880.0780450358095</v>
       </c>
       <c r="Y40" t="n">
-        <v>740.6457880559659</v>
+        <v>732.1254837542564</v>
       </c>
     </row>
     <row r="41">
@@ -7438,22 +7438,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3081.513828560668</v>
+        <v>3041.992567213673</v>
       </c>
       <c r="W41" t="n">
-        <v>2776.194806238627</v>
+        <v>2736.673544891632</v>
       </c>
       <c r="X41" t="n">
-        <v>2450.178680925621</v>
+        <v>2410.657419578626</v>
       </c>
       <c r="Y41" t="n">
         <v>2107.488981897883</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F43" t="n">
         <v>335.4089181770414</v>
@@ -7584,37 +7584,37 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1983.207425607999</v>
+        <v>1949.589732305505</v>
       </c>
       <c r="C44" t="n">
-        <v>1696.959858232655</v>
+        <v>1628.076848313167</v>
       </c>
       <c r="D44" t="n">
-        <v>1386.143792573978</v>
+        <v>1317.26078265449</v>
       </c>
       <c r="E44" t="n">
-        <v>1047.805172923807</v>
+        <v>978.9221630043186</v>
       </c>
       <c r="F44" t="n">
-        <v>684.268901082273</v>
+        <v>615.3858911627843</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6460838753429</v>
+        <v>247.7630739558541</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7678,22 +7678,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3104.236671416634</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U44" t="n">
-        <v>2898.155827638544</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V44" t="n">
-        <v>2614.542573243047</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="W44" t="n">
-        <v>2309.223550921006</v>
+        <v>2957.445763762298</v>
       </c>
       <c r="X44" t="n">
-        <v>1983.207425607999</v>
+        <v>2631.429638449292</v>
       </c>
       <c r="Y44" t="n">
-        <v>1983.207425607999</v>
+        <v>2288.739939421554</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G46" t="n">
         <v>215.1557144998337</v>
@@ -7809,10 +7809,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M46" t="n">
         <v>1162.360316885667</v>
@@ -7851,7 +7851,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
   </sheetData>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>365.2927615819511</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>25.52838489616636</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>71.64238693444378</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>130.4797265368948</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>365.2927615819522</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>10.35749732417639</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>342.9371040273976</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1187564935612</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544165</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>78.40458911672994</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>21.13839585591512</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.633094239485217e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>365.2927615819507</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>71.64238693444264</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>114.8607624222749</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>365.2927615819507</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.21022140383137</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>160.0357106656243</v>
+        <v>360.6487635239242</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.91479965864664</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>153.6450080100909</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>90.55604218739802</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>311.9628403187026</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>120.4618045343853</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>244.3348022577912</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>298.9680065878838</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>76.78585061059005</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.78585061058988</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>258.281507424136</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>39.12604873352507</v>
       </c>
     </row>
     <row r="42">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>34.91266345082443</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>68.19417982029395</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>701226.2994571973</v>
+        <v>705838.5487395085</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>583767.3048225916</v>
+        <v>586523.6273846325</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>583767.3048225915</v>
+        <v>586523.6273846325</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633395.7240902894</v>
+        <v>638508.2289277394</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633395.7240902894</v>
+        <v>638508.2289277393</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>640630.2478261406</v>
+        <v>638508.2289277394</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650655.0916579647</v>
+        <v>650655.0916579646</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650655.0916579647</v>
+        <v>650655.0916579646</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637979.8393717417</v>
+        <v>638508.2289277394</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637979.8393717417</v>
+        <v>638508.2289277394</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>583767.3048225916</v>
+        <v>583767.3048225915</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>819276.3387170385</v>
       </c>
       <c r="D2" t="n">
-        <v>819283.7029994978</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="E2" t="n">
-        <v>764531.0098898428</v>
+        <v>768206.1066392304</v>
       </c>
       <c r="F2" t="n">
-        <v>764531.0098898425</v>
+        <v>768206.10663923</v>
       </c>
       <c r="G2" t="n">
-        <v>814929.6161556807</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="H2" t="n">
-        <v>814929.616155681</v>
+        <v>821041.7698642839</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642827</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="J2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="K2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642821</v>
+        <v>821041.7698642823</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642827</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864284</v>
       </c>
       <c r="O2" t="n">
-        <v>764531.0098898428</v>
+        <v>764531.0098898431</v>
       </c>
       <c r="P2" t="n">
-        <v>764531.0098898427</v>
+        <v>764531.0098898429</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19708.98312032399</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1142859.142942023</v>
+        <v>1163986.424041487</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>40800.74956648269</v>
+        <v>42756.65247689062</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5261.536327617708</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40564.96577018715</v>
+        <v>43835.04867471663</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16596.1732014201</v>
+        <v>17470.92444306238</v>
       </c>
       <c r="M3" t="n">
-        <v>204591.6926510703</v>
+        <v>204699.9478507259</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>436273.8797192482</v>
       </c>
       <c r="D4" t="n">
-        <v>429836.4204240781</v>
+        <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359854</v>
+        <v>60296.56776515413</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359854</v>
+        <v>60296.56776515412</v>
       </c>
       <c r="G4" t="n">
-        <v>83177.52332994426</v>
+        <v>86489.43715193857</v>
       </c>
       <c r="H4" t="n">
-        <v>83177.52332994425</v>
+        <v>86489.43715193859</v>
       </c>
       <c r="I4" t="n">
-        <v>85837.2861671233</v>
+        <v>86489.43715193862</v>
       </c>
       <c r="J4" t="n">
+        <v>82806.76150409844</v>
+      </c>
+      <c r="K4" t="n">
+        <v>82806.76150409844</v>
+      </c>
+      <c r="L4" t="n">
         <v>82806.76150409848</v>
       </c>
-      <c r="K4" t="n">
-        <v>82806.76150409851</v>
-      </c>
-      <c r="L4" t="n">
-        <v>82806.76150409844</v>
-      </c>
       <c r="M4" t="n">
-        <v>86654.67862842782</v>
+        <v>86489.43715193863</v>
       </c>
       <c r="N4" t="n">
-        <v>86654.67862842789</v>
+        <v>86489.43715193863</v>
       </c>
       <c r="O4" t="n">
-        <v>58215.55741359857</v>
+        <v>58215.55741359855</v>
       </c>
       <c r="P4" t="n">
-        <v>58215.55741359857</v>
+        <v>58215.55741359856</v>
       </c>
     </row>
     <row r="5">
@@ -26475,37 +26475,37 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34129.29174257201</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78532.7382146607</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78532.7382146607</v>
       </c>
       <c r="G5" t="n">
-        <v>85368.79976898008</v>
+        <v>85977.79977727788</v>
       </c>
       <c r="H5" t="n">
-        <v>85368.79976898008</v>
+        <v>85977.79977727788</v>
       </c>
       <c r="I5" t="n">
-        <v>86571.79392408313</v>
+        <v>85977.79977727789</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>85829.89331719307</v>
+        <v>85977.79977727788</v>
       </c>
       <c r="N5" t="n">
-        <v>85829.89331719305</v>
+        <v>85977.79977727788</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178175</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>349374.8589977904</v>
+        <v>349330.7232191092</v>
       </c>
       <c r="C6" t="n">
-        <v>349374.8589977904</v>
+        <v>349330.7232191092</v>
       </c>
       <c r="D6" t="n">
-        <v>335609.0077125237</v>
+        <v>349330.723219109</v>
       </c>
       <c r="E6" t="n">
-        <v>-514799.1837875604</v>
+        <v>-535930.5149626976</v>
       </c>
       <c r="F6" t="n">
-        <v>628059.9591544624</v>
+        <v>628055.9090787892</v>
       </c>
       <c r="G6" t="n">
-        <v>605582.5434902736</v>
+        <v>605817.8804581758</v>
       </c>
       <c r="H6" t="n">
-        <v>646383.2930567566</v>
+        <v>648574.5329350674</v>
       </c>
       <c r="I6" t="n">
-        <v>643371.1534454586</v>
+        <v>648574.532935067</v>
       </c>
       <c r="J6" t="n">
-        <v>608292.1009151915</v>
+        <v>605022.0180106624</v>
       </c>
       <c r="K6" t="n">
-        <v>648857.0666853787</v>
+        <v>648857.0666853789</v>
       </c>
       <c r="L6" t="n">
-        <v>632260.8934839575</v>
+        <v>631386.1422423152</v>
       </c>
       <c r="M6" t="n">
-        <v>443965.5052675924</v>
+        <v>443874.5850843402</v>
       </c>
       <c r="N6" t="n">
-        <v>648557.1979186623</v>
+        <v>648574.5329350674</v>
       </c>
       <c r="O6" t="n">
-        <v>628059.9591544626</v>
+        <v>626647.1901551018</v>
       </c>
       <c r="P6" t="n">
-        <v>628059.9591544624</v>
+        <v>626647.1901551017</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>50.2729621295292</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50.2729621295292</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72.11161768335712</v>
+      </c>
+      <c r="H2" t="n">
+        <v>72.11161768335712</v>
+      </c>
+      <c r="I2" t="n">
+        <v>72.11161768335712</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="G2" t="n">
-        <v>67.72035312036782</v>
-      </c>
-      <c r="H2" t="n">
-        <v>67.72035312036782</v>
-      </c>
-      <c r="I2" t="n">
-        <v>67.72035312036782</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="N2" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>919.7119297626643</v>
+        <v>923.6565150875301</v>
       </c>
       <c r="H4" t="n">
-        <v>919.7119297626643</v>
+        <v>923.6565150875301</v>
       </c>
       <c r="I4" t="n">
-        <v>939.498017840017</v>
+        <v>923.6565150875304</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>919.7119297626643</v>
+        <v>923.65651508753</v>
       </c>
       <c r="N4" t="n">
-        <v>919.7119297626643</v>
+        <v>923.65651508753</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.74521650177525</v>
+        <v>21.83865555382792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.22992011681733</v>
+        <v>25.13648106476464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.74521650177513</v>
+        <v>21.83865555382798</v>
       </c>
       <c r="M2" t="n">
-        <v>26.22992011681746</v>
+        <v>25.1364810647646</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1066.763317906509</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>88.3104743603717</v>
+        <v>92.25505968523737</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.7860880773527</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>74.83844336859738</v>
+        <v>90.67994612108407</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>736.7769239563424</v>
+        <v>740.7215092812083</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.74521650177525</v>
+        <v>21.83865555382792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.22992011681733</v>
+        <v>25.13648106476464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>88.3104743603717</v>
+        <v>92.25505968523737</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27870,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,16 +27946,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,22 +28052,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859236</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>20.32676453950063</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>20.32676453950045</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>50.2729621295292</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="C17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="D17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="E17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="F17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="G17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="H17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="T17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="U17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="V17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="W17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="X17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="Y17" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="C19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="D19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="E19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="F19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="G19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="H19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="I19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>37.13823810902613</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="S19" t="n">
-        <v>67.72035312036782</v>
+        <v>38.25057184618481</v>
       </c>
       <c r="T19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="U19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="V19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="W19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="X19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="Y19" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="C20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="D20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="E20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="F20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="G20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="H20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="T20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="U20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="V20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="W20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="X20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="Y20" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.72035312036782</v>
+        <v>38.25057184618473</v>
       </c>
       <c r="C22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="D22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="E22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="F22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="G22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="H22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="I22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>37.13823810902608</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="S22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="T22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="U22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="V22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="W22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="X22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="Y22" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="C23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="D23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="E23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="F23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="G23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="H23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="T23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="U23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="V23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="W23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="X23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="Y23" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="C25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="D25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="E25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="F25" t="n">
-        <v>67.72035312036782</v>
+        <v>38.25057184618467</v>
       </c>
       <c r="G25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="H25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="I25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29237,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>37.13823810902642</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="S25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="T25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="U25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="V25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="W25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="X25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.72035312036782</v>
+        <v>72.11161768335712</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859537</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="C35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="D35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="E35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="F35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="G35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="H35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="T35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="U35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="V35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="W35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="X35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="Y35" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="C37" t="n">
-        <v>73.20505673540991</v>
+        <v>38.25057184618322</v>
       </c>
       <c r="D37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="E37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="F37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="G37" t="n">
-        <v>21.84898606539198</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="H37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="I37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="S37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="T37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="U37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="V37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="W37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="X37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="C38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="D38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="E38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="F38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="G38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="H38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="T38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="U38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="V38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="W38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="X38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="Y38" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="C40" t="n">
-        <v>21.84898606539244</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="D40" t="n">
-        <v>73.20505673540991</v>
+        <v>38.25057184618315</v>
       </c>
       <c r="E40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="F40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="G40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="H40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="I40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="S40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="T40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="U40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="V40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="W40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="X40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.20505673540991</v>
+        <v>72.11161768335721</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859165</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32329,7 +32329,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970257</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
         <v>447.6103584002926</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353166</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32806,10 +32806,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33277,13 +33277,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34225,13 +34225,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165858</v>
+        <v>95.85137874259543</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>256.3206216738488</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>370.0303342997273</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>397.9063415230131</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>395.1299082970693</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>322.6798947621404</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564862</v>
+        <v>128.6672006674229</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>65.90518115256667</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>256.3206216738488</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>370.0303342997273</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>395.1299082970693</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>352.626092352169</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>285.2300332746397</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>128.6672006674229</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>820.882875974283</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
@@ -35901,7 +35901,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>424.290371115538</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037194</v>
@@ -35977,7 +35977,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525813</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
@@ -36050,7 +36050,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>384.7716175025099</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36138,10 +36138,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>470.4043731538154</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>381.2740313406142</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36202,7 +36202,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609576</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36290,7 +36290,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>381.9951842765661</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
@@ -36363,10 +36363,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>904.2138774121787</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36375,7 +36375,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>409.119483543548</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36533,7 +36533,7 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>272.0953092541368</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789363</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36603,10 +36603,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>881.8582198576241</v>
       </c>
       <c r="N26" t="n">
-        <v>761.4205919064725</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
@@ -36615,10 +36615,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36840,22 +36840,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737881</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>533.9947035090619</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37089,10 +37089,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>80.75159439813984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165864</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629149</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861324</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637028</v>
+        <v>281.9322077637019</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>917.5945969948619</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>470.4043731538145</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>452.0520489776753</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
@@ -37554,7 +37554,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>917.5945969948619</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37946,16 +37946,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412314</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38183,7 +38183,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38192,7 +38192,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
